--- a/new/excel.xlsx
+++ b/new/excel.xlsx
@@ -1328,179 +1328,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1516,6 +1348,174 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,6 +1533,896 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hasil GCD  pembangkitan jam 16:03:20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - 16:58:18</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$N$5:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-376148384"/>
+        <c:axId val="-380383088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-376148384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-380383088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-380383088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-376148384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,6 +2561,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2016,42 +2941,42 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="57"/>
       <c r="G5" s="58"/>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="90"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="57"/>
       <c r="G6" s="58"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="59" t="s">
@@ -2312,23 +3237,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -2338,13 +3263,13 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
       <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -2352,55 +3277,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="124"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="124"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -2409,13 +3334,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="100"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="108"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -2680,26 +3605,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="121"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2776,25 +3701,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="114"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="107" t="s">
+      <c r="D49" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="109"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="117"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -3082,10 +4007,10 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="99" t="s">
+      <c r="F75" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="100"/>
+      <c r="G75" s="108"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
@@ -4095,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K29" sqref="D3:K30"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,7 +5035,7 @@
   <sheetData>
     <row r="2" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="129" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="88" t="s">
@@ -4122,10 +5047,10 @@
       <c r="G3" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="123" t="s">
+      <c r="I3" s="133" t="s">
         <v>152</v>
       </c>
       <c r="J3" s="86" t="s">
@@ -4136,7 +5061,7 @@
       </c>
     </row>
     <row r="4" spans="4:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="122"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="73" t="s">
         <v>132</v>
       </c>
@@ -4146,9 +5071,9 @@
       <c r="G4" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="144" t="s">
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="90" t="s">
         <v>165</v>
       </c>
       <c r="K4" s="52" t="s">
@@ -4156,7 +5081,7 @@
       </c>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="121">
+      <c r="D5" s="129">
         <v>1</v>
       </c>
       <c r="E5" s="53">
@@ -4165,20 +5090,20 @@
       <c r="F5" s="54">
         <v>0.42850694444444448</v>
       </c>
-      <c r="G5" s="121">
+      <c r="G5" s="129">
         <v>10</v>
       </c>
-      <c r="H5" s="121">
+      <c r="H5" s="129">
         <v>179</v>
       </c>
-      <c r="I5" s="121">
+      <c r="I5" s="129">
         <v>419</v>
       </c>
-      <c r="J5" s="145">
+      <c r="J5" s="131">
         <f>ABS(H5-I5)</f>
         <v>240</v>
       </c>
-      <c r="K5" s="121">
+      <c r="K5" s="129">
         <v>2</v>
       </c>
       <c r="Q5">
@@ -4186,88 +5111,100 @@
       </c>
     </row>
     <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="122"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="73" t="s">
         <v>136</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="122"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="130"/>
+      <c r="N6">
+        <v>4</v>
+      </c>
       <c r="Q6">
         <v>3.83</v>
       </c>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="121">
+      <c r="D7" s="129">
         <v>2</v>
       </c>
-      <c r="E7" s="149">
+      <c r="E7" s="93">
         <v>0.66898148148148151</v>
       </c>
-      <c r="F7" s="148">
+      <c r="F7" s="92">
         <v>0.33565972222222223</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="129">
         <v>7</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="129">
         <v>137</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="129">
         <v>277</v>
       </c>
-      <c r="J7" s="145">
+      <c r="J7" s="131">
         <f t="shared" ref="J7" si="0">ABS(H7-I7)</f>
         <v>140</v>
       </c>
-      <c r="K7" s="121">
+      <c r="K7" s="129">
         <v>4</v>
       </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="122"/>
-      <c r="E8" s="143" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="89" t="s">
         <v>137</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="122"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="130"/>
+      <c r="N8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="121">
+      <c r="D9" s="129">
         <v>3</v>
       </c>
-      <c r="E9" s="149">
+      <c r="E9" s="93">
         <v>0.67243055555555553</v>
       </c>
-      <c r="F9" s="148">
+      <c r="F9" s="92">
         <v>0.75577546296296294</v>
       </c>
-      <c r="G9" s="121">
+      <c r="G9" s="129">
         <v>16</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="129">
         <v>367</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="129">
         <v>103</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="131">
         <f t="shared" ref="J9" si="1">ABS(H9-I9)</f>
         <v>264</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="129">
         <v>6</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
       </c>
       <c r="Q9">
         <f>Q5+Q6</f>
@@ -4275,583 +5212,555 @@
       </c>
     </row>
     <row r="10" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="122"/>
-      <c r="E10" s="143" t="s">
+      <c r="D10" s="130"/>
+      <c r="E10" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="150" t="s">
+      <c r="F10" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="122"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="130"/>
+      <c r="N10">
+        <v>2</v>
+      </c>
       <c r="Q10">
         <f>Q9/2</f>
         <v>3.915</v>
       </c>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="121">
+      <c r="D11" s="129">
         <v>4</v>
       </c>
-      <c r="E11" s="149">
+      <c r="E11" s="93">
         <v>0.67590277777777785</v>
       </c>
-      <c r="F11" s="148">
+      <c r="F11" s="92">
         <v>0.46758101851851852</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="129">
         <v>23</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="129">
         <v>197</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="129">
         <v>67</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="131">
         <f t="shared" ref="J11" si="2">ABS(H11-I11)</f>
         <v>130</v>
       </c>
-      <c r="K11" s="121">
+      <c r="K11" s="129">
         <v>2</v>
       </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="122"/>
-      <c r="E12" s="143" t="s">
+      <c r="D12" s="130"/>
+      <c r="E12" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="122"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="130"/>
+      <c r="N12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="121">
+      <c r="D13" s="129">
         <v>5</v>
       </c>
-      <c r="E13" s="149">
+      <c r="E13" s="93">
         <v>0.67937499999999995</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="95">
         <v>0.34605324074074079</v>
       </c>
-      <c r="G13" s="121">
+      <c r="G13" s="129">
         <v>7</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="129">
         <v>137</v>
       </c>
-      <c r="I13" s="121">
+      <c r="I13" s="129">
         <v>31</v>
       </c>
-      <c r="J13" s="145">
+      <c r="J13" s="131">
         <f>ABS(H13-I13)</f>
         <v>106</v>
       </c>
-      <c r="K13" s="121">
+      <c r="K13" s="129">
         <v>2</v>
       </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="122"/>
-      <c r="E14" s="143" t="s">
+      <c r="D14" s="130"/>
+      <c r="E14" s="89" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="122"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="130"/>
+      <c r="N14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="121">
+      <c r="D15" s="129">
         <v>6</v>
       </c>
-      <c r="E15" s="149">
+      <c r="E15" s="93">
         <v>0.68284722222222216</v>
       </c>
-      <c r="F15" s="151">
+      <c r="F15" s="95">
         <v>0.34952546296296294</v>
       </c>
-      <c r="G15" s="121">
+      <c r="G15" s="129">
         <v>7</v>
       </c>
-      <c r="H15" s="121">
+      <c r="H15" s="129">
         <v>32</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="129">
         <v>71</v>
       </c>
-      <c r="J15" s="145">
+      <c r="J15" s="131">
         <f t="shared" ref="J15" si="3">ABS(H15-I15)</f>
         <v>39</v>
       </c>
-      <c r="K15" s="121">
+      <c r="K15" s="129">
         <v>2</v>
       </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="122"/>
-      <c r="E16" s="143" t="s">
+      <c r="D16" s="130"/>
+      <c r="E16" s="89" t="s">
         <v>137</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="122"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="121">
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="130"/>
+      <c r="N16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="129">
         <v>7</v>
       </c>
-      <c r="E17" s="149">
+      <c r="E17" s="93">
         <v>0.68631944444444448</v>
       </c>
-      <c r="F17" s="151">
+      <c r="F17" s="95">
         <v>0.72799768518518515</v>
       </c>
-      <c r="G17" s="121">
+      <c r="G17" s="129">
         <v>17</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="129">
         <v>347</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="129">
         <v>479</v>
       </c>
-      <c r="J17" s="145">
+      <c r="J17" s="131">
         <f t="shared" ref="J17" si="4">ABS(H17-I17)</f>
         <v>132</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="129">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="122"/>
-      <c r="E18" s="143" t="s">
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="130"/>
+      <c r="E18" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="150" t="s">
+      <c r="F18" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="122"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="121">
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="130"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="129">
         <v>8</v>
       </c>
-      <c r="E19" s="149">
+      <c r="E19" s="93">
         <v>0.68979166666666669</v>
       </c>
-      <c r="F19" s="148">
+      <c r="F19" s="92">
         <v>0.35646990740740742</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G19" s="129">
         <v>7</v>
       </c>
-      <c r="H19" s="121">
+      <c r="H19" s="129">
         <v>137</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="129">
         <v>47</v>
       </c>
-      <c r="J19" s="145">
+      <c r="J19" s="131">
         <f t="shared" ref="J19" si="5">ABS(H19-I19)</f>
         <v>90</v>
       </c>
-      <c r="K19" s="121">
+      <c r="K19" s="129">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="122"/>
-      <c r="E20" s="143" t="s">
+    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="130"/>
+      <c r="E20" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="152" t="s">
+      <c r="F20" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="122"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="121">
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="130"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="129">
         <v>9</v>
       </c>
-      <c r="E21" s="149">
+      <c r="E21" s="93">
         <v>0.69326388888888879</v>
       </c>
-      <c r="F21" s="151">
+      <c r="F21" s="95">
         <v>0.90160879629629631</v>
       </c>
-      <c r="G21" s="121">
+      <c r="G21" s="129">
         <v>13</v>
       </c>
-      <c r="H21" s="121">
+      <c r="H21" s="129">
         <v>439</v>
       </c>
-      <c r="I21" s="121">
+      <c r="I21" s="129">
         <v>149</v>
       </c>
-      <c r="J21" s="145">
+      <c r="J21" s="131">
         <f>ABS(H21-I21)</f>
         <v>290</v>
       </c>
-      <c r="K21" s="121">
+      <c r="K21" s="129">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="122"/>
-      <c r="E22" s="143" t="s">
+    <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="130"/>
+      <c r="E22" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="150" t="s">
+      <c r="F22" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="122"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="121">
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="130"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="129">
         <v>10</v>
       </c>
-      <c r="E23" s="149">
+      <c r="E23" s="93">
         <v>0.69673611111111111</v>
       </c>
-      <c r="F23" s="148">
+      <c r="F23" s="92">
         <v>0.78008101851851863</v>
       </c>
-      <c r="G23" s="121">
+      <c r="G23" s="129">
         <v>16</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="129">
         <v>367</v>
       </c>
-      <c r="I23" s="121">
+      <c r="I23" s="129">
         <v>257</v>
       </c>
-      <c r="J23" s="145">
+      <c r="J23" s="131">
         <f t="shared" ref="J23" si="6">ABS(H23-I23)</f>
         <v>110</v>
       </c>
-      <c r="K23" s="121">
+      <c r="K23" s="129">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="122"/>
-      <c r="E24" s="143" t="s">
+    <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="130"/>
+      <c r="E24" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="152" t="s">
+      <c r="F24" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="122"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="121">
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="130"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="129">
         <v>11</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="93">
         <v>0.70020833333333332</v>
       </c>
-      <c r="F25" s="151">
+      <c r="F25" s="95">
         <v>0.45021990740740742</v>
       </c>
-      <c r="G25" s="121">
+      <c r="G25" s="129">
         <v>9</v>
       </c>
-      <c r="H25" s="121">
+      <c r="H25" s="129">
         <v>179</v>
       </c>
-      <c r="I25" s="121">
+      <c r="I25" s="129">
         <v>379</v>
       </c>
-      <c r="J25" s="145">
+      <c r="J25" s="131">
         <f t="shared" ref="J25" si="7">ABS(H25-I25)</f>
         <v>200</v>
       </c>
-      <c r="K25" s="121">
+      <c r="K25" s="129">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="122"/>
-      <c r="E26" s="143" t="s">
+    <row r="26" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="130"/>
+      <c r="E26" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="150" t="s">
+      <c r="F26" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="122"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="121">
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="130"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="129">
         <v>12</v>
       </c>
-      <c r="E27" s="149">
+      <c r="E27" s="93">
         <v>0.70368055555555553</v>
       </c>
-      <c r="F27" s="148">
+      <c r="F27" s="92">
         <v>0.95369212962962957</v>
       </c>
-      <c r="G27" s="121">
+      <c r="G27" s="129">
         <v>12</v>
       </c>
-      <c r="H27" s="121">
+      <c r="H27" s="129">
         <v>461</v>
       </c>
-      <c r="I27" s="121">
+      <c r="I27" s="129">
         <v>499</v>
       </c>
-      <c r="J27" s="145">
+      <c r="J27" s="131">
         <f t="shared" ref="J27" si="8">ABS(H27-I27)</f>
         <v>38</v>
       </c>
-      <c r="K27" s="121">
+      <c r="K27" s="129">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="122"/>
-      <c r="E28" s="143" t="s">
+    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="130"/>
+      <c r="E28" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="152" t="s">
+      <c r="F28" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="122"/>
-    </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="121">
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="130"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="129">
         <v>13</v>
       </c>
-      <c r="E29" s="149">
+      <c r="E29" s="93">
         <v>0.70715277777777785</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="95">
         <v>0.12383101851851852</v>
       </c>
-      <c r="G29" s="121">
+      <c r="G29" s="129">
         <v>1</v>
       </c>
-      <c r="H29" s="121">
+      <c r="H29" s="129">
         <v>23</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="129">
         <v>61</v>
       </c>
-      <c r="J29" s="145">
+      <c r="J29" s="131">
         <f>ABS(H29-I29)</f>
         <v>38</v>
       </c>
-      <c r="K29" s="121">
+      <c r="K29" s="129">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="122"/>
-      <c r="E30" s="143" t="s">
+    <row r="30" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="130"/>
+      <c r="E30" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="152" t="s">
+      <c r="F30" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="122"/>
-    </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="121"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="130"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="129"/>
       <c r="E31" s="53"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="121"/>
-    </row>
-    <row r="32" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="122"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="129"/>
+    </row>
+    <row r="32" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="130"/>
       <c r="E32" s="73"/>
       <c r="F32" s="52"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="122"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="130"/>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="121"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="53"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="121"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="129"/>
     </row>
     <row r="34" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="122"/>
+      <c r="D34" s="130"/>
       <c r="E34" s="73"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="122"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="130"/>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="121"/>
+      <c r="D35" s="129"/>
       <c r="E35" s="53"/>
       <c r="F35" s="54"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="121"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="129"/>
     </row>
     <row r="36" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="122"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="73"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="122"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="130"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="121"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="53"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="121"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="129"/>
     </row>
     <row r="38" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="122"/>
+      <c r="D38" s="130"/>
       <c r="E38" s="73"/>
       <c r="F38" s="52"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="122"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
@@ -4869,25 +5778,78 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="K35:K36"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4918,10 +5880,10 @@
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="125" t="s">
+      <c r="J18" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="125" t="s">
+      <c r="K18" s="135" t="s">
         <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -4929,8 +5891,8 @@
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
       <c r="L19" s="6" t="s">
         <v>135</v>
       </c>
@@ -5160,47 +6122,47 @@
   <sheetData>
     <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="136" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
       <c r="G5" s="69">
         <v>0.42850694444444448</v>
       </c>
       <c r="H5" s="68"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
       <c r="G6" s="76">
         <v>97</v>
       </c>
       <c r="H6" s="68"/>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="130" t="s">
+      <c r="D7" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="132"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
       <c r="G7" s="77">
         <v>4</v>
       </c>
       <c r="H7" s="68"/>
     </row>
     <row r="8" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="133" t="s">
+      <c r="E8" s="146"/>
+      <c r="F8" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="134"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="68"/>
     </row>
     <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5242,14 +6204,14 @@
       <c r="D11" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="138"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="72"/>
     </row>
     <row r="12" spans="4:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="84" t="s">
         <v>155</v>
       </c>
@@ -5299,10 +6261,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="140"/>
+      <c r="J6" s="150"/>
       <c r="K6" s="31" t="s">
         <v>144</v>
       </c>
@@ -5326,8 +6288,8 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="152"/>
       <c r="K7" s="22" t="s">
         <v>145</v>
       </c>

--- a/new/excel.xlsx
+++ b/new/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>informasi peranti waktu (HH:mm:ss)</t>
-  </si>
-  <si>
-    <t>qQi</t>
   </si>
   <si>
     <t>K1 &lt; K2</t>
@@ -729,6 +726,9 @@
       </rPr>
       <t>q</t>
     </r>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1452,17 +1452,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1698,11 +1698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-376148384"/>
-        <c:axId val="-380383088"/>
+        <c:axId val="1885393824"/>
+        <c:axId val="1885394912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-376148384"/>
+        <c:axId val="1885393824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,12 +1758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-380383088"/>
+        <c:crossAx val="1885394912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-380383088"/>
+        <c:axId val="1885394912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-376148384"/>
+        <c:crossAx val="1885393824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5020,7 +5020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -5039,22 +5039,22 @@
         <v>119</v>
       </c>
       <c r="E3" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="G3" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="86" t="s">
         <v>161</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="133" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>162</v>
       </c>
       <c r="K3" s="87" t="s">
         <v>134</v>
@@ -5069,15 +5069,15 @@
         <v>133</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
+        <v>158</v>
+      </c>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.25">
@@ -5099,7 +5099,7 @@
       <c r="I5" s="129">
         <v>419</v>
       </c>
-      <c r="J5" s="131">
+      <c r="J5" s="133">
         <f>ABS(H5-I5)</f>
         <v>240</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="G6" s="130"/>
       <c r="H6" s="130"/>
       <c r="I6" s="130"/>
-      <c r="J6" s="132"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="130"/>
       <c r="N6">
         <v>4</v>
@@ -5149,7 +5149,7 @@
       <c r="I7" s="129">
         <v>277</v>
       </c>
-      <c r="J7" s="131">
+      <c r="J7" s="133">
         <f t="shared" ref="J7" si="0">ABS(H7-I7)</f>
         <v>140</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="G8" s="130"/>
       <c r="H8" s="130"/>
       <c r="I8" s="130"/>
-      <c r="J8" s="132"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="130"/>
       <c r="N8">
         <v>2</v>
@@ -5196,7 +5196,7 @@
       <c r="I9" s="129">
         <v>103</v>
       </c>
-      <c r="J9" s="131">
+      <c r="J9" s="133">
         <f t="shared" ref="J9" si="1">ABS(H9-I9)</f>
         <v>264</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="G10" s="130"/>
       <c r="H10" s="130"/>
       <c r="I10" s="130"/>
-      <c r="J10" s="132"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="130"/>
       <c r="N10">
         <v>2</v>
@@ -5251,7 +5251,7 @@
       <c r="I11" s="129">
         <v>67</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="133">
         <f t="shared" ref="J11" si="2">ABS(H11-I11)</f>
         <v>130</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="G12" s="130"/>
       <c r="H12" s="130"/>
       <c r="I12" s="130"/>
-      <c r="J12" s="132"/>
+      <c r="J12" s="134"/>
       <c r="K12" s="130"/>
       <c r="N12">
         <v>2</v>
@@ -5298,7 +5298,7 @@
       <c r="I13" s="129">
         <v>31</v>
       </c>
-      <c r="J13" s="131">
+      <c r="J13" s="133">
         <f>ABS(H13-I13)</f>
         <v>106</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="G14" s="130"/>
       <c r="H14" s="130"/>
       <c r="I14" s="130"/>
-      <c r="J14" s="132"/>
+      <c r="J14" s="134"/>
       <c r="K14" s="130"/>
       <c r="N14">
         <v>2</v>
@@ -5345,7 +5345,7 @@
       <c r="I15" s="129">
         <v>71</v>
       </c>
-      <c r="J15" s="131">
+      <c r="J15" s="133">
         <f t="shared" ref="J15" si="3">ABS(H15-I15)</f>
         <v>39</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="G16" s="130"/>
       <c r="H16" s="130"/>
       <c r="I16" s="130"/>
-      <c r="J16" s="132"/>
+      <c r="J16" s="134"/>
       <c r="K16" s="130"/>
       <c r="N16">
         <v>2</v>
@@ -5392,7 +5392,7 @@
       <c r="I17" s="129">
         <v>479</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="133">
         <f t="shared" ref="J17" si="4">ABS(H17-I17)</f>
         <v>132</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="G18" s="130"/>
       <c r="H18" s="130"/>
       <c r="I18" s="130"/>
-      <c r="J18" s="132"/>
+      <c r="J18" s="134"/>
       <c r="K18" s="130"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
       <c r="I19" s="129">
         <v>47</v>
       </c>
-      <c r="J19" s="131">
+      <c r="J19" s="133">
         <f t="shared" ref="J19" si="5">ABS(H19-I19)</f>
         <v>90</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="G20" s="130"/>
       <c r="H20" s="130"/>
       <c r="I20" s="130"/>
-      <c r="J20" s="132"/>
+      <c r="J20" s="134"/>
       <c r="K20" s="130"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
@@ -5477,7 +5477,7 @@
       <c r="I21" s="129">
         <v>149</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="133">
         <f>ABS(H21-I21)</f>
         <v>290</v>
       </c>
@@ -5496,7 +5496,7 @@
       <c r="G22" s="130"/>
       <c r="H22" s="130"/>
       <c r="I22" s="130"/>
-      <c r="J22" s="132"/>
+      <c r="J22" s="134"/>
       <c r="K22" s="130"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
@@ -5518,7 +5518,7 @@
       <c r="I23" s="129">
         <v>257</v>
       </c>
-      <c r="J23" s="131">
+      <c r="J23" s="133">
         <f t="shared" ref="J23" si="6">ABS(H23-I23)</f>
         <v>110</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="G24" s="130"/>
       <c r="H24" s="130"/>
       <c r="I24" s="130"/>
-      <c r="J24" s="132"/>
+      <c r="J24" s="134"/>
       <c r="K24" s="130"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
       <c r="I25" s="129">
         <v>379</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="133">
         <f t="shared" ref="J25" si="7">ABS(H25-I25)</f>
         <v>200</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="G26" s="130"/>
       <c r="H26" s="130"/>
       <c r="I26" s="130"/>
-      <c r="J26" s="132"/>
+      <c r="J26" s="134"/>
       <c r="K26" s="130"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
       <c r="I27" s="129">
         <v>499</v>
       </c>
-      <c r="J27" s="131">
+      <c r="J27" s="133">
         <f t="shared" ref="J27" si="8">ABS(H27-I27)</f>
         <v>38</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="G28" s="130"/>
       <c r="H28" s="130"/>
       <c r="I28" s="130"/>
-      <c r="J28" s="132"/>
+      <c r="J28" s="134"/>
       <c r="K28" s="130"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
       <c r="I29" s="129">
         <v>61</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="133">
         <f>ABS(H29-I29)</f>
         <v>38</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="G30" s="130"/>
       <c r="H30" s="130"/>
       <c r="I30" s="130"/>
-      <c r="J30" s="132"/>
+      <c r="J30" s="134"/>
       <c r="K30" s="130"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
@@ -5745,6 +5745,83 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -5765,87 +5842,10 @@
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K29:K30"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="I23:I24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5858,7 +5858,7 @@
   <dimension ref="D4:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6108,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="D5:G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,13 +6167,13 @@
     </row>
     <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="70" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E9" s="30">
         <v>10</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="75" t="b">
         <v>0</v>
@@ -6186,13 +6186,13 @@
     </row>
     <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="79" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E10" s="78">
         <v>80</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="81" t="b">
         <f>E$9&lt; E10</f>
@@ -6213,7 +6213,7 @@
       <c r="D12" s="138"/>
       <c r="E12" s="139"/>
       <c r="F12" s="84" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G12" s="83">
         <v>419</v>

--- a/new/excel.xlsx
+++ b/new/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
-    <sheet name="new" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId7"/>
     <sheet name="1new" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="190">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -567,27 +567,12 @@
     <t>(hh:mm:ss)</t>
   </si>
   <si>
-    <t>GCD</t>
-  </si>
-  <si>
-    <t>( p - 1, q - 1 )</t>
-  </si>
-  <si>
     <t>GMT + 8</t>
   </si>
   <si>
     <t>GMT +8</t>
   </si>
   <si>
-    <t>GMT +10</t>
-  </si>
-  <si>
-    <t>{23=1, 10=1, 1=1, 20=1, 19=1, 12=1, 18=2, 14=1, 21=2, 16=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCD </t>
-  </si>
-  <si>
     <t>K1 &lt; Kn &amp;&amp;  K1 != Kn</t>
   </si>
   <si>
@@ -627,9 +612,6 @@
     <t>Hasil</t>
   </si>
   <si>
-    <t>informasi peranti waktu (HH:mm:ss)</t>
-  </si>
-  <si>
     <t>K1 &lt; K2</t>
   </si>
   <si>
@@ -648,87 +630,155 @@
     <t>ZL</t>
   </si>
   <si>
-    <t>Selisih</t>
+    <t>p</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>publik</t>
+  </si>
+  <si>
+    <t>kunci</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Teks Asli</t>
+  </si>
+  <si>
+    <t>Hasil Enkripsi</t>
+  </si>
+  <si>
+    <t>Jumlah 
+Karakter</t>
+  </si>
+  <si>
+    <t>Entropi
+Enkripsi</t>
+  </si>
+  <si>
+    <t>“Ketahuilah, bahwa sesungguhnya kehidupan dunia ini
+hanyalah permainan dan suatu yang melalaikan, perhiasan dan bermegah-megah antara kamu serta berbangga-banggaan tentang banyaknya harta dan anak, seperti hujan yang tanam-tanamannya mengagumkan para petani; kemudian tanaman itu menjadi kering dan kamu lihat warnanya kuning kemudian menjadi hancur. Dan di akhirat (nanti) ada azab yang keras dan ampunan dari Allah serta keridhaan-Nya. Dan kehidupan dunia ini tidak lain hanyalah kesenangan yang menipu.”</t>
+  </si>
+  <si>
+    <t>㓷?봠〇న븭儵柬甒ˠ븭儵⫕拦┟븭儵帰븭拦婍〇婍柬獘踫踫
+柬儵獘痾븭拦ᑒ〇儵甒群柬磁븭獘拦群柬獘甒븭拦甒獘甒拦儵븭獘痾븭ˠ븭儵拦磁〇砚븭甒獘븭獘拦群븭獘拦婍柬븭న柬拦痾븭獘踫拦砚〇ˠ븭ˠ븭甒ᑒ븭獘⫕拦磁〇儵甒븭婍븭獘拦群븭獘拦┟〇砚〇踫븭儵锁砚〇踫븭儵拦븭獘న븭븭拦ᑒ븭砚柬拦婍〇న븭拦┟〇┟븭獘踫踫븭锁┟븭獘踫踫븭븭獘拦న〇獘న븭獘踫拦┟븭獘痾븭ᑒ獘痾븭拦儵븭న븭拦群븭獘拦븭獘븭ᑒ⫕拦婍〇磁〇న甒拦儵柬ॐ븭獘拦痾븭獘踫拦న븭獘븭砚锁న븭獘븭砚븭獘獘痾븭拦砚〇獘踫븭踫柬砚ᑒ븭獘拦磁븭븭拦磁〇న븭獘甒䴑拦ᑒ〇砚柬群甒븭獘拦న븭獘븭砚븭獘拦甒న柬拦砚〇獘ॐ븭群甒拦ᑒ〇甒獘踫拦群븭獘拦ᑒ븭砚柬拦ˠ甒儵븭న拦帰븭獘븭獘痾븭拦ᑒ柬獘甒獘踫拦ᑒ〇砚柬群甒븭獘拦砚〇獘ॐ븭群甒拦儵븭獘ᨼ柬쏥拦ᦩ븭獘拦群甒拦븭ᑒ儵甒븭న拦⍽獘븭獘న甒熮拦븭群븭拦븭涵븭┟拦痾븭獘踫拦ᑒ〇븭婍拦群븭獘拦븭砚磁柬獘븭獘拦群븭甒拦嘼ˠˠ븭儵拦婍〇న븭拦ᑒ〇甒群儵븭븭獘锁뫲痾븭쏥拦ᦩ븭獘拦ᑒ〇儵甒群柬磁븭獘拦群柬獘甒븭拦甒獘甒拦న甒群븭ᑒ拦ˠ븭甒獘拦儵븭獘痾븭ˠ븭儵拦ᑒ〇婍〇獘븭獘踫븭獘拦痾븭獘踫拦砚〇獘甒磁柬쏥婠㓷拦拦拦拦</t>
+  </si>
+  <si>
+    <t>4.257107430057822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">㜅䂷馻饊笀⢪὎깼὎⢪὎ｒ쉶艈짒⢪὎Ґ⢪艈씴Ґ⢪馻⢪὎씴칅⢪饊馻ｒ艈訛⢪씴칅⢪馻艈짒⢪깼⢪ś깼춗Ґ⢪깼訛⢪깼⢪Ґś艈Ґ㐝὎笀⢪깼訛馻ｒ춗Ґ὎⢪깼訛⢪剡馻깼칅὎씴ś⢪깼춗馻ś⢪짒馻쉶⢪깼訛⢪剡馻깼칅὎씴ś⢪깼剡馻쉶὎⢪὎Ґ⢪깼剡쉶訛깼㐝Ґ⢪馻⢪饊Ґ깼艈὎⢪깼訛⢪㐝씴艈訛ｒҐ笀⢪艈씴吩Ґ⢪ｒ깼씴⢪饊馻칅Ґ⢪㐝ｒ馻䵖칅⢪깼춗깼鵆Ґ⢪὎Ґ⢪䵖Ґ깼칅깼὎칅὏⢪?Ґ⢪὎Ґ⢪䵖艈깼὎⢪訛ｒ씴Ґ칅⢪쉶䵖⢪깼訛⢪짒馻쉶⢪칅ҐҐ⢪씴὎⢪씴칅⢪짒Ґ艈艈馻饊⢪깼訛⢪὎Ґ⢪㐝ｒ쉶춗剡艈Ґ칅⢪ဥ訛⢪씴⢪὎Ґ⢪ҐｒҐ깼὎Ґｒ⢪黆艈깼὎Ґｒꩋ⢪὎ҐｒҐ⢪饊씴艈艈⢪剡Ґ⢪깼ｒ칅⢪䵖쉶씴칅춗Ґ὎⢪깼訛⢪馻ｒś씴珪ҐҐ칅칅⢪ｒ馻춗⢪ဥ艈艈깼⢪깼訛⢪℻씴칅⢪ś馻馻訛⢪䵖艈Ґ깼칅쉶ｒҐ⢪ဥ訛⢪὎Ґ⢪艈씴Ґ⢪馻⢪὎씴칅⢪饊馻ｒ艈訛⢪씴칅⢪馻὎씴ś⢪剡쉶὎⢪訛Ґ㐝Ґ䵖὎씴珪Ґ⢪䵖艈Ґ깼칅쉶ｒҐ칅⢪㜅⢪⢪⢪⢪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Know, that truly the life of this world is only a game and a neglect, adornment and boasting among you and boasting about the abundance of wealth and children, like rain whose crops amaze the peasants; Then the plant dries up and you see it is yellow and then crumbles. And in the hereafter (later) there will be harsh punishment and forgiveness from Allah and His good pleasure. And the life of this world is nothing but deceptive pleasures. "
+</t>
+  </si>
+  <si>
+    <t>rata - rata panjang kunci publik dan privat 2 bit - 17 bit ( 2 digit - 5 digit )</t>
+  </si>
+  <si>
+    <t>Politeknik Samarinda. 
+Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda. Politeknik Samarinda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ޥ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌
+њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹၽ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹ⧌њ〡ǋݞ⊁⚭෌ǋ⚭ၽಊ㧄█㧄পǋ෌ㅻ㧄ᨹޥၽၽၽၽၽၽၽၽ
+</t>
+  </si>
+  <si>
+    <t>3.77391380004984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Þݹǳ൰ٵओȐ܉ࡿओȐଥƓМओȐ¬ओƓ୬൰୬ථǚǚȐථओƓઐ൰Ȑ܉ŭȘओථƓŭථ܉ओƓ܉ථ܉ƓȐओථओࡿओȐƓȘ൰൸ओ܉ථओථƓŭओථƓ୬ओٵƓओථǚƓ൸൰ࡿओࡿओ܉ઐओථଥƓȘ൰Ȑ܉ओ୬ओථƓŭओථƓМ൰൸൰ǚओȐخ൸൰ǚओȐƓओථٵओओƓઐओ൸Ɠ୬൰ٵओƓМ൰МओථǚǚओخМओථǚǚओओථƓٵ൰ථٵओථǚƓМओථओઐථओƓȐओٵओƓŭओථƓओථओઐଥƓ୬൰Ș൰ٵ܉ƓȐӸओථƓओථǚƓٵओථओ൸خٵओථओ൸ओථථओƓ൸൰ථǚओǚ൸ઐओථƓȘओओƓȘ൰ٵओථ܉ʷƓઐ൰൸ŭ܉ओථƓٵओථओ൸ओථƓ܉ٵƓ൸൰ථӸओŭ܉Ɠઐ൰܉ථǚƓŭओථƓઐओ൸Ɠࡿ܉ȐओٵƓ¬ओථओථओƓઐථ܉ථǚƓઐ൰൸ŭ܉ओථƓ൸൰ථӸओŭ܉ƓȐओථݭഄƓϾओථƓŭ܉ƓओઐȐ܉ओٵƓέථओථٵ܉ǑƓओŭओƓओຎओМƓओථǚƓઐ൰ओ୬ƓŭओථƓओ൸ȘථओථƓŭओ܉ƓଅࡿࡿओȐƓ୬൰ٵओƓઐ൰܉ŭȐओओථخ಺ओഄƓϾओථƓઐ൰Ȑ܉ŭȘओථƓŭථ܉ओƓ܉ථ܉Ɠٵ܉ŭओઐƓࡿओ܉ථƓȐओථओࡿओȐƓઐ൰୬൰ථओථǚओථƓओථǚƓ൸൰ථ܉ȘഄɍÞƓƓƓƓ
+</t>
+  </si>
+  <si>
+    <t>4.035569614562073</t>
+  </si>
+  <si>
+    <t>奱ಟ垝貉婪ⴁ袙苘卾┍涁卾苘卾တ浗ⱓ柖苘卾┍᥻苘ⱓ橞㖴᥻苘婪㖴苘卾┍橞媃苘ⴁ婪တⱓ䦛苘橞媃苘婪貉ⱓ柖苘涁苘显涁艪᥻苘涁貉䦛苘涁苘貉᥻显ⱓ᥻∥卾袙苘涁䦛婪တ貉艪᥻貉卾苘涁貉䦛苘婪涁媃卾橞貉显苘涁艪婪貉显苘柖婪浗苘涁貉䦛苘婪涁媃卾橞貉显苘涁婪浗卾苘卾┍᥻苘涁浗貉䦛涁貉∥᥻苘婪㖴苘ⴁ᥻涁ⱓ卾┍苘涁貉䦛苘∥┍橞ⱓ䦛တ᥻貉袙苘ⱓ橞㬡᥻苘တ涁橞貉苘ⴁ┍婪媃᥻苘∥တ婪所媃苘涁艪涁㻣᥻苘卾┍᥻苘所᥻涁媃涁貉卾媃й苘蝏┍᥻貉苘卾┍᥻苘所ⱓ涁貉卾苘䦛တ橞᥻媃苘浗所苘涁貉䦛苘柖婪浗苘媃᥻᥻苘橞卾苘橞媃苘柖᥻ⱓⱓ婪ⴁ苘涁貉䦛苘卾┍᥻貉苘∥တ浗艪ⱓ᥻媃䚎苘帺貉䦛苘橞貉苘卾┍᥻苘┍᥻တ᥻涁㖴卾᥻တ苘ƛⱓ涁卾᥻တ貢苘卾┍᥻တ᥻苘ⴁ橞ⱓⱓ苘᥻苘┍涁တ媃┍苘所浗貉橞媃┍艪᥻貉卾苘涁貉䦛苘㖴婪တ显橞㨲᥻貉᥻媃媃苘㖴တ婪艪苘帺ⱓⱓ涁┍苘涁貉䦛苘䇱橞媃苘显婪婪䦛苘所ⱓ᥻涁媃浗တ᥻䚎苘帺貉䦛苘卾┍᥻苘ⱓ橞㖴᥻苘婪㖴苘卾┍橞媃苘ⴁ婪တⱓ䦛苘橞媃苘貉婪卾┍橞貉显苘浗卾苘䦛᥻∥᥻所卾橞㨲᥻苘所ⱓ᥻涁媃浗တ᥻媃䚎苘ಟ奱苘苘苘苘</t>
+  </si>
+  <si>
+    <t>晍痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻䗻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻痠鋖芍ズ۹✠ᣡ茹ズᣡ䗻૛ء⁂ء豁ズ茹ݐء鳻晍䗻䗻䗻䗻䗻䗻䗻䗻</t>
+  </si>
+  <si>
+    <t>4.421087076196203</t>
+  </si>
+  <si>
+    <t>jika menggunakan simbol !@#$%^&amp;*()_+{}:"&gt;&lt;[];',/|~`
+ apakah memiliki has1l perbandingan sama atau berbeda, belum diketahui karena sedang dicoba dan lihatlah disamping ini hasilnya jika menggunakan simbol ! dikeyboard sampai simbol ? dengan berdasarkan informasi peranti waktu yang digunakan dalam penentuan p dan q yang detailnya ada pada tahapan sebelumnya, ok! nb: fokus analisanya ada pada nilai keacakan data yang menggunakan shannon enteropi</t>
+  </si>
+  <si>
+    <t>uƉ¯ͽ̝ʩǐǶƠøøƮƠ̝ͽ̝ƠʩƩ¯ǐѠϓșʩ̈́х˃̻ұˈÂËȨȫѡÔЮɥ˗
+ƕČǿѫѳǉˀҷȺŞЁʩ̝Ƥ̝ͽ̝ЋʩǐǶǐ¯ș¯ͽ¯ʩЋ̝ƩϛșʩƤǶіѠ̝ƠŰ¯Ơø̝ƠʩƩ̝ǐ̝ʩ̝п̝ƮʩѠǶіѠǶŰ̝ˀʩѠǶșƮǐʩŰ¯ͽǶп̝ЋƮ¯ʩͽ̝іǶƠ̝ʩƩǶŰ̝ƠøʩŰ¯ϜϓѠ̝ʩŰ̝Ơʩș¯Ћ̝пș̝ЋʩŰ¯Ʃ̝ǐƤ¯Ơøʩ¯Ơ¯ʩЋ̝Ʃ¯șƠÏ̝ʩƉ¯ͽ̝ʩǐǶƠøøƮƠ̝ͽ̝ƠʩƩ¯ǐѠϓșʩ̈́ʩŰ¯ͽǶÏѠϓ̝іŰʩƩ̝ǐƤ̝¯ʩƩ¯ǐѠϓșʩѵʩŰǶƠø̝ƠʩѠǶіŰ̝Ʃ̝іͽ̝Ơʩ¯Ơɿϓіǐ̝Ʃ¯ʩƤǶі̝Ơп¯ʩĻ̝ͽпƮʩÏ̝ƠøʩŰ¯øƮƠ̝ͽ̝ƠʩŰ̝ș̝ǐʩƤǶƠǶƠпƮ̝ƠʩƤʩŰ̝ƠʩNʩÏ̝ƠøʩŰǶп̝¯șƠÏ̝ʩ̝Ű̝ʩƤ̝Ű̝ʩп̝Ћ̝Ƥ̝ƠʩƩǶѠǶșƮǐƠÏ̝ˀʩϓͽ̈́ʩƠѠɥʩɿϓͽƮƩʩ̝Ơ̝ș¯Ʃ̝ƠÏ̝ʩ̝Ű̝ʩƤ̝Ű̝ʩƠ¯ș̝¯ʩͽǶ̝Ϝ̝ͽ̝ƠʩŰ̝п̝ʩÏ̝ƠøʩǐǶƠøøƮƠ̝ͽ̝ƠʩƩЋ̝ƠƠϓƠʩǶƠпǶіϓƤ¯uʩʩʩʩ</t>
+  </si>
+  <si>
+    <t>卥㼻ℊ㣜䍵怄焛碕䖣匵匵睖䖣䍵㣜䍵䖣怄纤ℊ
+焛ᨸㅶ╻怄ⅿ䛛᛬ᜮ糅Ề㯨肻ӎ僆僨㐭噊磏婪Ṽ焺橥吠᝭ܜ跴䡑伏罐Ť᧌怄䍵᣹䍵㣜䍵຺怄焛碕焛ℊ╻ℊ㣜ℊ怄຺䍵纤ᙻ╻怄᣹碕㻍ᨸ䍵䖣䧥ℊ䖣匵䍵䖣怄纤䍵焛䍵怄䍵侶䍵睖怄ᨸ碕㻍ᨸ碕䧥䍵䡑怄ᨸ碕╻睖焛怄䧥ℊ㣜碕侶䍵຺睖ℊ怄㣜䍵㻍碕䖣䍵怄纤碕䧥䍵䖣匵怄䧥ℊ໦ㅶᨸ䍵怄䧥䍵䖣怄╻ℊ຺䍵侶╻䍵຺怄䧥ℊ纤䍵焛᣹ℊ䖣匵怄ℊ䖣ℊ怄຺䍵纤ℊ╻䖣賅䍵怄㼻ℊ㣜䍵怄焛碕䖣匵匵睖䖣䍵㣜䍵䖣怄纤ℊ焛ᨸㅶ╻怄ⅿ怄䧥ℊ㣜碕賅ᨸㅶ䍵㻍䧥怄纤䍵焛᣹䍵ℊ怄纤ℊ焛ᨸㅶ╻怄缪怄䧥碕䖣匵䍵䖣怄ᨸ碕㻍䧥䍵纤䍵㻍㣜䍵䖣怄ℊ䖣ᔫㅶ㻍焛䍵纤ℊ怄᣹碕㻍䍵䖣侶ℊ怄巪䍵㣜侶睖怄賅䍵䖣匵怄䧥ℊ匵睖䖣䍵㣜䍵䖣怄䧥䍵╻䍵焛怄᣹碕䖣碕䖣侶睖䍵䖣怄᣹怄䧥䍵䖣怄唲怄賅䍵䖣匵怄䧥碕侶䍵ℊ╻䖣賅䍵怄䍵䧥䍵怄᣹䍵䧥䍵怄侶䍵຺䍵᣹䍵䖣怄纤碕ᨸ碕╻睖焛䖣賅䍵䡑怄ㅶ㣜ⅿ怄䖣ᨸ婪怄ᔫㅶ㣜睖纤怄䍵䖣䍵╻ℊ纤䍵䖣賅䍵怄䍵䧥䍵怄᣹䍵䧥䍵怄䖣ℊ╻䍵ℊ怄㣜碕䍵໦䍵㣜䍵䖣怄䧥䍵侶䍵怄賅䍵䖣匵怄焛碕䖣匵匵睖䖣䍵㣜䍵䖣怄纤຺䍵䖣䖣ㅶ䖣怄碕䖣侶碕㻍ㅶ᣹ℊ卥怄怄怄怄</t>
+  </si>
+  <si>
+    <t>teks1</t>
+  </si>
+  <si>
+    <t>teks2</t>
+  </si>
+  <si>
+    <t>teks3</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>teks4</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">( </t>
+      <t xml:space="preserve">p dan q </t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>p</t>
+      <t>default</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p dan q </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <i/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> - 1, </t>
+      <t>base</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>q</t>
+      <t xml:space="preserve"> informasi peranti waktu</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> - 1 )</t>
-    </r>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> dan </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>q</t>
-    </r>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
@@ -738,7 +788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +900,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -871,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1128,11 +1185,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1250,10 +1318,6 @@
     <xf numFmtId="21" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1261,33 +1325,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,7 +1360,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,9 +1372,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,9 +1380,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,6 +1397,87 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,24 +1553,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1452,26 +1562,71 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1480,26 +1635,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,6 +1667,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1645,45 +1807,30 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$N$5:$N$17</c:f>
+              <c:f>Sheet5!$Q$5:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                <c:pt idx="0">
+                  <c:v>13631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>12905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>14711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>33581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,11 +1845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1885393824"/>
-        <c:axId val="1885394912"/>
+        <c:axId val="101624480"/>
+        <c:axId val="101622848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1885393824"/>
+        <c:axId val="101624480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,12 +1905,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885394912"/>
+        <c:crossAx val="101622848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1885394912"/>
+        <c:axId val="101622848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1885393824"/>
+        <c:crossAx val="101624480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1869,7 +2016,476 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hasil Entropi Enkripsi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32270822397200349"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p dan q default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$V$9:$Y$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>teks1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teks2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>teks3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>teks4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$V$10:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0355696145620703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25710743005782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.77391380004984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4210870761961996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p dan q base informasi peranti waktu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$V$9:$Y$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>teks1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>teks2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>teks3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>teks4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$V$11:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0355696145620703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.25710743005782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.77391380004984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4210870761961996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="332840768"/>
+        <c:axId val="332838592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="332840768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332838592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="332838592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332840768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2425,6 +3041,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2564,16 +3682,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2660,6 +3778,41 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158198</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2941,56 +4094,56 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="97" t="s">
+      <c r="E5" s="116"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="98"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="58" t="s">
         <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -2998,18 +4151,18 @@
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="58" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -3017,18 +4170,18 @@
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="61" t="s">
         <v>42</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -3036,18 +4189,18 @@
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="58" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -3055,18 +4208,18 @@
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="58" t="s">
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -3074,14 +4227,14 @@
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="59"/>
-      <c r="E12" s="60" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58" t="s">
         <v>45</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -3089,12 +4242,12 @@
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58" t="s">
         <v>46</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -3102,12 +4255,12 @@
       </c>
     </row>
     <row r="14" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60" t="s">
         <v>47</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -3222,7 +4375,7 @@
   <dimension ref="B1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L80" sqref="E79:L80"/>
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,23 +4390,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="129"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -3263,13 +4416,13 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="124"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -3277,55 +4430,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="124"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -3334,13 +4487,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="108"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="126"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -3605,26 +4758,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="139"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="121"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="139"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -3701,25 +4854,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="114"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="132"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="117"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="135"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -4007,30 +5160,24 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="107" t="s">
+      <c r="F75" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="108"/>
+      <c r="G75" s="126"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="8">
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D48:H48"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D3:H3"/>
     <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
     <mergeCell ref="D9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5018,733 +6165,993 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:Q38"/>
+  <dimension ref="D1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M3:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="74" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="68" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="68" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="2" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="87" t="s">
-        <v>134</v>
-      </c>
+      <c r="E3" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="156" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="156" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="152"/>
+      <c r="M3" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="156" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="156" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="151" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="152"/>
     </row>
     <row r="4" spans="4:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="130"/>
-      <c r="E4" s="73" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="67" t="s">
         <v>132</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="90" t="s">
-        <v>164</v>
+      <c r="G4" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="89" t="s">
+        <v>157</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="129">
+        <v>159</v>
+      </c>
+      <c r="M4" s="142"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="141">
         <v>1</v>
       </c>
       <c r="E5" s="53">
-        <v>0.6368287037037037</v>
+        <v>0.7021412037037037</v>
       </c>
       <c r="F5" s="54">
-        <v>0.42850694444444448</v>
-      </c>
-      <c r="G5" s="129">
+        <v>0.2854976851851852</v>
+      </c>
+      <c r="G5" s="141">
+        <v>5</v>
+      </c>
+      <c r="H5" s="141">
+        <v>97</v>
+      </c>
+      <c r="I5" s="141">
+        <v>167</v>
+      </c>
+      <c r="J5" s="149">
+        <v>121</v>
+      </c>
+      <c r="K5" s="141">
+        <v>4873</v>
+      </c>
+      <c r="M5" s="141">
+        <v>1</v>
+      </c>
+      <c r="N5" s="141">
+        <v>61</v>
+      </c>
+      <c r="O5" s="141">
+        <v>227</v>
+      </c>
+      <c r="P5" s="149">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="141">
+        <v>13631</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="142"/>
+      <c r="E6" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="142"/>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D7" s="141">
+        <v>2</v>
+      </c>
+      <c r="E7" s="84">
+        <v>0.70556712962962964</v>
+      </c>
+      <c r="F7" s="83">
+        <v>0.12224537037037037</v>
+      </c>
+      <c r="G7" s="141">
+        <v>1</v>
+      </c>
+      <c r="H7" s="141">
+        <v>23</v>
+      </c>
+      <c r="I7" s="141">
+        <v>167</v>
+      </c>
+      <c r="J7" s="149">
+        <v>89</v>
+      </c>
+      <c r="K7" s="141">
+        <v>2421</v>
+      </c>
+      <c r="M7" s="141">
+        <v>2</v>
+      </c>
+      <c r="N7" s="141">
+        <v>53</v>
+      </c>
+      <c r="O7" s="141">
+        <v>331</v>
+      </c>
+      <c r="P7" s="149">
+        <v>301</v>
+      </c>
+      <c r="Q7" s="141">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="142"/>
+      <c r="E8" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="142"/>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="141">
+        <v>3</v>
+      </c>
+      <c r="E9" s="84">
+        <v>0.70903935185185185</v>
+      </c>
+      <c r="F9" s="83">
+        <v>0.1257175925925926</v>
+      </c>
+      <c r="G9" s="141">
+        <v>1</v>
+      </c>
+      <c r="H9" s="141">
+        <v>41</v>
+      </c>
+      <c r="I9" s="141">
+        <v>23</v>
+      </c>
+      <c r="J9" s="149">
+        <v>27</v>
+      </c>
+      <c r="K9" s="141">
+        <v>163</v>
+      </c>
+      <c r="M9" s="141">
+        <v>3</v>
+      </c>
+      <c r="N9" s="141">
+        <v>89</v>
+      </c>
+      <c r="O9" s="141">
+        <v>409</v>
+      </c>
+      <c r="P9" s="149">
+        <v>281</v>
+      </c>
+      <c r="Q9" s="141">
+        <v>12905</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="142"/>
+      <c r="E10" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="142"/>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="141">
+        <v>4</v>
+      </c>
+      <c r="E11" s="84">
+        <v>0.71251157407407406</v>
+      </c>
+      <c r="F11" s="83">
+        <v>0.5875231481481481</v>
+      </c>
+      <c r="G11" s="141">
+        <v>21</v>
+      </c>
+      <c r="H11" s="141">
+        <v>269</v>
+      </c>
+      <c r="I11" s="141">
+        <v>137</v>
+      </c>
+      <c r="J11" s="149">
+        <v>73</v>
+      </c>
+      <c r="K11" s="141">
+        <v>32953</v>
+      </c>
+      <c r="M11" s="141">
+        <v>4</v>
+      </c>
+      <c r="N11" s="141">
+        <v>257</v>
+      </c>
+      <c r="O11" s="141">
+        <v>137</v>
+      </c>
+      <c r="P11" s="149">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="141">
+        <v>14711</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="142"/>
+      <c r="E12" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="142"/>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="141">
+        <v>5</v>
+      </c>
+      <c r="E13" s="84">
+        <v>0.71598379629629638</v>
+      </c>
+      <c r="F13" s="86">
+        <v>0.25766203703703705</v>
+      </c>
+      <c r="G13" s="141">
+        <v>4</v>
+      </c>
+      <c r="H13" s="141">
+        <v>97</v>
+      </c>
+      <c r="I13" s="141">
+        <v>241</v>
+      </c>
+      <c r="J13" s="149">
+        <v>199</v>
+      </c>
+      <c r="K13" s="141">
+        <v>10999</v>
+      </c>
+      <c r="M13" s="141">
+        <v>5</v>
+      </c>
+      <c r="N13" s="141">
+        <v>61</v>
+      </c>
+      <c r="O13" s="141">
+        <v>113</v>
+      </c>
+      <c r="P13" s="149">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="141">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="142"/>
+      <c r="E14" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="142"/>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D15" s="141">
+        <v>6</v>
+      </c>
+      <c r="E15" s="84">
+        <v>0.71945601851851848</v>
+      </c>
+      <c r="F15" s="86">
+        <v>0.51113425925925926</v>
+      </c>
+      <c r="G15" s="141">
+        <v>23</v>
+      </c>
+      <c r="H15" s="141">
+        <v>227</v>
+      </c>
+      <c r="I15" s="141">
+        <v>367</v>
+      </c>
+      <c r="J15" s="149">
+        <v>227</v>
+      </c>
+      <c r="K15" s="141">
+        <v>17855</v>
+      </c>
+      <c r="M15" s="141">
+        <v>6</v>
+      </c>
+      <c r="N15" s="141">
+        <v>229</v>
+      </c>
+      <c r="O15" s="141">
+        <v>211</v>
+      </c>
+      <c r="P15" s="149">
+        <v>221</v>
+      </c>
+      <c r="Q15" s="141">
+        <v>33581</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="142"/>
+      <c r="E16" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="142"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D17" s="141">
+        <v>7</v>
+      </c>
+      <c r="E17" s="84">
+        <v>0.72292824074074069</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0.76460648148148147</v>
+      </c>
+      <c r="G17" s="141">
+        <v>17</v>
+      </c>
+      <c r="H17" s="141">
+        <v>367</v>
+      </c>
+      <c r="I17" s="141">
+        <v>487</v>
+      </c>
+      <c r="J17" s="149">
+        <v>283</v>
+      </c>
+      <c r="K17" s="141">
+        <v>143935</v>
+      </c>
+      <c r="M17" s="141">
+        <v>7</v>
+      </c>
+      <c r="N17" s="141">
+        <v>113</v>
+      </c>
+      <c r="O17" s="141">
+        <v>2</v>
+      </c>
+      <c r="P17" s="149">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="141">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="142"/>
+      <c r="E18" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="142"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D19" s="141">
+        <v>8</v>
+      </c>
+      <c r="E19" s="84">
+        <v>0.72640046296296301</v>
+      </c>
+      <c r="F19" s="83">
+        <v>0.60141203703703705</v>
+      </c>
+      <c r="G19" s="141">
+        <v>21</v>
+      </c>
+      <c r="H19" s="141">
+        <v>269</v>
+      </c>
+      <c r="I19" s="141">
+        <v>53</v>
+      </c>
+      <c r="J19" s="149">
+        <v>35</v>
+      </c>
+      <c r="K19" s="141">
+        <v>11547</v>
+      </c>
+      <c r="M19" s="141">
+        <v>8</v>
+      </c>
+      <c r="N19" s="141">
+        <v>83</v>
+      </c>
+      <c r="O19" s="141">
+        <v>139</v>
+      </c>
+      <c r="P19" s="149">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="141">
+        <v>6229</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="142"/>
+      <c r="E20" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="142"/>
+      <c r="R20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="141">
+        <v>9</v>
+      </c>
+      <c r="E21" s="84">
+        <v>0.72987268518518522</v>
+      </c>
+      <c r="F21" s="86">
+        <v>0.56321759259259263</v>
+      </c>
+      <c r="G21" s="141">
+        <v>22</v>
+      </c>
+      <c r="H21" s="141">
+        <v>241</v>
+      </c>
+      <c r="I21" s="141">
+        <v>151</v>
+      </c>
+      <c r="J21" s="149">
+        <v>137</v>
+      </c>
+      <c r="K21" s="141">
+        <v>22073</v>
+      </c>
+      <c r="M21" s="141">
+        <v>9</v>
+      </c>
+      <c r="N21" s="141">
+        <v>7</v>
+      </c>
+      <c r="O21" s="141">
+        <v>173</v>
+      </c>
+      <c r="P21" s="149">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="141">
+        <v>677</v>
+      </c>
+      <c r="R21">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="142"/>
+      <c r="E22" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="142"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="141">
         <v>10</v>
       </c>
-      <c r="H5" s="129">
-        <v>179</v>
-      </c>
-      <c r="I5" s="129">
-        <v>419</v>
-      </c>
-      <c r="J5" s="133">
-        <f>ABS(H5-I5)</f>
-        <v>240</v>
-      </c>
-      <c r="K5" s="129">
+      <c r="E23" s="84">
+        <v>0.73334490740740732</v>
+      </c>
+      <c r="F23" s="83">
+        <v>0.19168981481481481</v>
+      </c>
+      <c r="G23" s="141">
         <v>2</v>
       </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="130"/>
-      <c r="E6" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="130"/>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="129">
-        <v>2</v>
-      </c>
-      <c r="E7" s="93">
-        <v>0.66898148148148151</v>
-      </c>
-      <c r="F7" s="92">
-        <v>0.33565972222222223</v>
-      </c>
-      <c r="G7" s="129">
-        <v>7</v>
-      </c>
-      <c r="H7" s="129">
-        <v>137</v>
-      </c>
-      <c r="I7" s="129">
-        <v>277</v>
-      </c>
-      <c r="J7" s="133">
-        <f t="shared" ref="J7" si="0">ABS(H7-I7)</f>
-        <v>140</v>
-      </c>
-      <c r="K7" s="129">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="130"/>
-      <c r="E8" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="130"/>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="129">
-        <v>3</v>
-      </c>
-      <c r="E9" s="93">
-        <v>0.67243055555555553</v>
-      </c>
-      <c r="F9" s="92">
-        <v>0.75577546296296294</v>
-      </c>
-      <c r="G9" s="129">
-        <v>16</v>
-      </c>
-      <c r="H9" s="129">
-        <v>367</v>
-      </c>
-      <c r="I9" s="129">
-        <v>103</v>
-      </c>
-      <c r="J9" s="133">
-        <f t="shared" ref="J9" si="1">ABS(H9-I9)</f>
-        <v>264</v>
-      </c>
-      <c r="K9" s="129">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <f>Q5+Q6</f>
+      <c r="H23" s="141">
+        <v>59</v>
+      </c>
+      <c r="I23" s="141">
+        <v>263</v>
+      </c>
+      <c r="J23" s="149">
+        <v>117</v>
+      </c>
+      <c r="K23" s="141">
+        <v>11949</v>
+      </c>
+      <c r="M23" s="141">
+        <v>10</v>
+      </c>
+      <c r="N23" s="141">
+        <v>127</v>
+      </c>
+      <c r="O23" s="141">
+        <v>389</v>
+      </c>
+      <c r="P23" s="149">
+        <v>275</v>
+      </c>
+      <c r="Q23" s="141">
+        <v>30755</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="142"/>
+      <c r="E24" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="142"/>
+      <c r="R24">
+        <f>R20+R21</f>
         <v>7.83</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="130"/>
-      <c r="E10" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="130"/>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <f>Q9/2</f>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="141">
+        <v>11</v>
+      </c>
+      <c r="E25" s="84">
+        <v>0.73681712962962964</v>
+      </c>
+      <c r="F25" s="86">
+        <v>0.65349537037037042</v>
+      </c>
+      <c r="G25" s="141">
+        <v>20</v>
+      </c>
+      <c r="H25" s="141">
+        <v>283</v>
+      </c>
+      <c r="I25" s="141">
+        <v>383</v>
+      </c>
+      <c r="J25" s="149">
+        <v>239</v>
+      </c>
+      <c r="K25" s="141">
+        <v>51383</v>
+      </c>
+      <c r="M25" s="141">
+        <v>11</v>
+      </c>
+      <c r="N25" s="141">
+        <v>97</v>
+      </c>
+      <c r="O25" s="141">
+        <v>401</v>
+      </c>
+      <c r="P25" s="149">
+        <v>299</v>
+      </c>
+      <c r="Q25" s="141">
+        <v>899</v>
+      </c>
+      <c r="R25">
+        <f>R24/2</f>
         <v>3.915</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="129">
-        <v>4</v>
-      </c>
-      <c r="E11" s="93">
-        <v>0.67590277777777785</v>
-      </c>
-      <c r="F11" s="92">
-        <v>0.46758101851851852</v>
-      </c>
-      <c r="G11" s="129">
-        <v>23</v>
-      </c>
-      <c r="H11" s="129">
+    <row r="26" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="142"/>
+      <c r="E26" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="150"/>
+      <c r="Q26" s="142"/>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D27" s="141">
+        <v>12</v>
+      </c>
+      <c r="E27" s="84">
+        <v>0.74028935185185185</v>
+      </c>
+      <c r="F27" s="83">
+        <v>0.49030092592592589</v>
+      </c>
+      <c r="G27" s="141">
+        <v>9</v>
+      </c>
+      <c r="H27" s="141">
         <v>197</v>
       </c>
-      <c r="I11" s="129">
-        <v>67</v>
-      </c>
-      <c r="J11" s="133">
-        <f t="shared" ref="J11" si="2">ABS(H11-I11)</f>
-        <v>130</v>
-      </c>
-      <c r="K11" s="129">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="130"/>
-      <c r="E12" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="130"/>
-      <c r="N12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="129">
-        <v>5</v>
-      </c>
-      <c r="E13" s="93">
-        <v>0.67937499999999995</v>
-      </c>
-      <c r="F13" s="95">
-        <v>0.34605324074074079</v>
-      </c>
-      <c r="G13" s="129">
-        <v>7</v>
-      </c>
-      <c r="H13" s="129">
-        <v>137</v>
-      </c>
-      <c r="I13" s="129">
-        <v>31</v>
-      </c>
-      <c r="J13" s="133">
-        <f>ABS(H13-I13)</f>
-        <v>106</v>
-      </c>
-      <c r="K13" s="129">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="130"/>
-      <c r="E14" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="130"/>
-      <c r="N14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="129">
-        <v>6</v>
-      </c>
-      <c r="E15" s="93">
-        <v>0.68284722222222216</v>
-      </c>
-      <c r="F15" s="95">
-        <v>0.34952546296296294</v>
-      </c>
-      <c r="G15" s="129">
-        <v>7</v>
-      </c>
-      <c r="H15" s="129">
-        <v>32</v>
-      </c>
-      <c r="I15" s="129">
+      <c r="I27" s="141">
+        <v>503</v>
+      </c>
+      <c r="J27" s="149">
+        <v>225</v>
+      </c>
+      <c r="K27" s="141">
+        <v>20553</v>
+      </c>
+      <c r="M27" s="141">
+        <v>12</v>
+      </c>
+      <c r="N27" s="141">
         <v>71</v>
       </c>
-      <c r="J15" s="133">
-        <f t="shared" ref="J15" si="3">ABS(H15-I15)</f>
-        <v>39</v>
-      </c>
-      <c r="K15" s="129">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="130"/>
-      <c r="E16" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="130"/>
-      <c r="N16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="129">
-        <v>7</v>
-      </c>
-      <c r="E17" s="93">
-        <v>0.68631944444444448</v>
-      </c>
-      <c r="F17" s="95">
-        <v>0.72799768518518515</v>
-      </c>
-      <c r="G17" s="129">
-        <v>17</v>
-      </c>
-      <c r="H17" s="129">
-        <v>347</v>
-      </c>
-      <c r="I17" s="129">
-        <v>479</v>
-      </c>
-      <c r="J17" s="133">
-        <f t="shared" ref="J17" si="4">ABS(H17-I17)</f>
-        <v>132</v>
-      </c>
-      <c r="K17" s="129">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="130"/>
-      <c r="E18" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="130"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="129">
-        <v>8</v>
-      </c>
-      <c r="E19" s="93">
-        <v>0.68979166666666669</v>
-      </c>
-      <c r="F19" s="92">
-        <v>0.35646990740740742</v>
-      </c>
-      <c r="G19" s="129">
-        <v>7</v>
-      </c>
-      <c r="H19" s="129">
-        <v>137</v>
-      </c>
-      <c r="I19" s="129">
-        <v>47</v>
-      </c>
-      <c r="J19" s="133">
-        <f t="shared" ref="J19" si="5">ABS(H19-I19)</f>
-        <v>90</v>
-      </c>
-      <c r="K19" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="130"/>
-      <c r="E20" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="130"/>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="129">
-        <v>9</v>
-      </c>
-      <c r="E21" s="93">
-        <v>0.69326388888888879</v>
-      </c>
-      <c r="F21" s="95">
-        <v>0.90160879629629631</v>
-      </c>
-      <c r="G21" s="129">
-        <v>13</v>
-      </c>
-      <c r="H21" s="129">
-        <v>439</v>
-      </c>
-      <c r="I21" s="129">
-        <v>149</v>
-      </c>
-      <c r="J21" s="133">
-        <f>ABS(H21-I21)</f>
-        <v>290</v>
-      </c>
-      <c r="K21" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="130"/>
-      <c r="E22" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="130"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="129">
-        <v>10</v>
-      </c>
-      <c r="E23" s="93">
-        <v>0.69673611111111111</v>
-      </c>
-      <c r="F23" s="92">
-        <v>0.78008101851851863</v>
-      </c>
-      <c r="G23" s="129">
-        <v>16</v>
-      </c>
-      <c r="H23" s="129">
-        <v>367</v>
-      </c>
-      <c r="I23" s="129">
-        <v>257</v>
-      </c>
-      <c r="J23" s="133">
-        <f t="shared" ref="J23" si="6">ABS(H23-I23)</f>
-        <v>110</v>
-      </c>
-      <c r="K23" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="130"/>
-      <c r="E24" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="130"/>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="129">
-        <v>11</v>
-      </c>
-      <c r="E25" s="93">
-        <v>0.70020833333333332</v>
-      </c>
-      <c r="F25" s="95">
-        <v>0.45021990740740742</v>
-      </c>
-      <c r="G25" s="129">
-        <v>9</v>
-      </c>
-      <c r="H25" s="129">
-        <v>179</v>
-      </c>
-      <c r="I25" s="129">
-        <v>379</v>
-      </c>
-      <c r="J25" s="133">
-        <f t="shared" ref="J25" si="7">ABS(H25-I25)</f>
-        <v>200</v>
-      </c>
-      <c r="K25" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="130"/>
-      <c r="E26" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="94" t="s">
+      <c r="O27" s="141">
+        <v>53</v>
+      </c>
+      <c r="P27" s="149">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="141">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="142"/>
+      <c r="E28" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="130"/>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="129">
-        <v>12</v>
-      </c>
-      <c r="E27" s="93">
-        <v>0.70368055555555553</v>
-      </c>
-      <c r="F27" s="92">
-        <v>0.95369212962962957</v>
-      </c>
-      <c r="G27" s="129">
-        <v>12</v>
-      </c>
-      <c r="H27" s="129">
-        <v>461</v>
-      </c>
-      <c r="I27" s="129">
-        <v>499</v>
-      </c>
-      <c r="J27" s="133">
-        <f t="shared" ref="J27" si="8">ABS(H27-I27)</f>
-        <v>38</v>
-      </c>
-      <c r="K27" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="130"/>
-      <c r="E28" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="130"/>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D29" s="129">
-        <v>13</v>
-      </c>
-      <c r="E29" s="93">
-        <v>0.70715277777777785</v>
-      </c>
-      <c r="F29" s="95">
-        <v>0.12383101851851852</v>
-      </c>
-      <c r="G29" s="129">
-        <v>1</v>
-      </c>
-      <c r="H29" s="129">
-        <v>23</v>
-      </c>
-      <c r="I29" s="129">
-        <v>61</v>
-      </c>
-      <c r="J29" s="133">
-        <f>ABS(H29-I29)</f>
-        <v>38</v>
-      </c>
-      <c r="K29" s="129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="130"/>
-      <c r="E30" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="130"/>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="129"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="129"/>
-    </row>
-    <row r="32" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="130"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="130"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="129"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="142"/>
+    </row>
+    <row r="29" spans="4:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="155"/>
+      <c r="M29" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="145"/>
+    </row>
+    <row r="30" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="106"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="148"/>
+    </row>
+    <row r="31" spans="4:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="155"/>
+      <c r="M31" s="109" t="s">
+        <v>170</v>
+      </c>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="111"/>
+    </row>
+    <row r="32" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="105"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="105"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="141"/>
       <c r="E33" s="53"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="129"/>
-    </row>
-    <row r="34" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="130"/>
-      <c r="E34" s="73"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="141"/>
+    </row>
+    <row r="34" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="142"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="130"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="129"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="142"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="142"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="142"/>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D35" s="141"/>
       <c r="E35" s="53"/>
       <c r="F35" s="54"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="129"/>
-    </row>
-    <row r="36" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="130"/>
-      <c r="E36" s="73"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="141"/>
+    </row>
+    <row r="36" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="142"/>
+      <c r="E36" s="67"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="130"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="129"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="142"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="142"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="141"/>
       <c r="E37" s="53"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="129"/>
-    </row>
-    <row r="38" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="130"/>
-      <c r="E38" s="73"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="141"/>
+    </row>
+    <row r="38" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="142"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="52"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="130"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="142"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
+      <c r="O38" s="142"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="142"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="170">
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
@@ -5762,55 +7169,29 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J19:J20"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="J29:J30"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="G33:G34"/>
@@ -5822,30 +7203,119 @@
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="K35:K36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="M29:Q30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5855,376 +7325,985 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:M33"/>
+  <dimension ref="E4:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="90"/>
+    <col min="6" max="6" width="48.7109375" style="90" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" style="90" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G10">
-        <v>23</v>
-      </c>
-      <c r="H10">
+    <row r="4" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="90">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="6">
-        <v>73</v>
-      </c>
-      <c r="K20" s="6">
-        <v>3251</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="F5" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="90">
+        <v>512</v>
+      </c>
+      <c r="H5" s="161" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="160"/>
+      <c r="H6" s="162"/>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="160"/>
+      <c r="H7" s="162"/>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="160"/>
+      <c r="H8" s="162"/>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="160"/>
+      <c r="H9" s="162"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="160"/>
+      <c r="H10" s="162"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="160"/>
+      <c r="H11" s="162"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="160"/>
+      <c r="H12" s="162"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="160"/>
+      <c r="H13" s="162"/>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="160"/>
+      <c r="H14" s="162"/>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="160"/>
+      <c r="H15" s="162"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="160"/>
+      <c r="H16" s="162"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="99"/>
+      <c r="H17" s="162"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="99"/>
+      <c r="H18" s="162"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="99"/>
+      <c r="H19" s="162"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="162"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="162"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="162"/>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="162"/>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="162"/>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="162"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="162"/>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="162"/>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="162"/>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="162"/>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="162"/>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="162"/>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="162"/>
+    </row>
+    <row r="33" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="100"/>
+    </row>
+    <row r="34" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="90">
         <v>2</v>
       </c>
-      <c r="M20">
-        <f>K20-J20</f>
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="6">
-        <v>227</v>
-      </c>
-      <c r="K21" s="6">
-        <v>283</v>
-      </c>
-      <c r="L21" s="6">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ref="M21:M32" si="0">K21-J21</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="6">
-        <v>157</v>
-      </c>
-      <c r="K22" s="6">
-        <v>467</v>
-      </c>
-      <c r="L22" s="6">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="6">
-        <v>227</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1087</v>
-      </c>
-      <c r="L23" s="6">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>860</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="6">
+      <c r="F34" s="158" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="90">
+        <v>451</v>
+      </c>
+      <c r="H34" s="158" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="158"/>
+      <c r="H35" s="158"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="158"/>
+      <c r="H36" s="158"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="158"/>
+      <c r="H37" s="158"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="158"/>
+      <c r="H38" s="158"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="158"/>
+      <c r="H39" s="158"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="158"/>
+      <c r="H40" s="158"/>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="158"/>
+      <c r="H41" s="158"/>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="158"/>
+      <c r="H42" s="158"/>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="158"/>
+      <c r="H43" s="158"/>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="158"/>
+      <c r="H44" s="158"/>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="100"/>
+      <c r="H45" s="158"/>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="100"/>
+      <c r="H46" s="158"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="158"/>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="158"/>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="158"/>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="158"/>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="158"/>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="158"/>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="158"/>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="158"/>
+    </row>
+    <row r="55" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="90">
+        <v>3</v>
+      </c>
+      <c r="F55" s="158" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="90">
+        <v>512</v>
+      </c>
+      <c r="H55" s="158" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" s="101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F56" s="158"/>
+      <c r="H56" s="158"/>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F57" s="158"/>
+      <c r="H57" s="158"/>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F58" s="158"/>
+      <c r="H58" s="158"/>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="158"/>
+      <c r="H59" s="158"/>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F60" s="158"/>
+      <c r="H60" s="158"/>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F61" s="158"/>
+      <c r="H61" s="158"/>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F62" s="158"/>
+      <c r="H62" s="158"/>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="158"/>
+      <c r="H63" s="158"/>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F64" s="158"/>
+      <c r="H64" s="158"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F65" s="158"/>
+      <c r="H65" s="158"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F66" s="158"/>
+      <c r="H66" s="158"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F67" s="158"/>
+      <c r="H67" s="158"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F68" s="158"/>
+      <c r="H68" s="158"/>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F69" s="158"/>
+      <c r="H69" s="158"/>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F70" s="158"/>
+      <c r="H70" s="158"/>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F71" s="158"/>
+      <c r="H71" s="158"/>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F72" s="158"/>
+      <c r="H72" s="158"/>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F73" s="158"/>
+      <c r="H73" s="158"/>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F74" s="158"/>
+      <c r="H74" s="158"/>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F75" s="158"/>
+      <c r="H75" s="158"/>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F76" s="158"/>
+      <c r="H76" s="158"/>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="158"/>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="158"/>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="158"/>
+    </row>
+    <row r="80" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="90">
+        <v>4</v>
+      </c>
+      <c r="F80" s="178" t="s">
         <v>179</v>
       </c>
-      <c r="K24" s="6">
-        <v>1229</v>
-      </c>
-      <c r="L24" s="6">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="6">
-        <v>73</v>
-      </c>
-      <c r="K25" s="6">
-        <v>101</v>
-      </c>
-      <c r="L25" s="6">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="6">
-        <v>197</v>
-      </c>
-      <c r="K26" s="6">
-        <v>2221</v>
-      </c>
-      <c r="L26" s="6">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="6">
-        <v>41</v>
-      </c>
-      <c r="K27" s="6">
-        <v>151</v>
-      </c>
-      <c r="L27" s="6">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="6">
-        <v>137</v>
-      </c>
-      <c r="K28" s="6">
-        <v>179</v>
-      </c>
-      <c r="L28" s="6">
-        <v>2</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="6">
-        <v>41</v>
-      </c>
-      <c r="K29" s="6">
-        <v>199</v>
-      </c>
-      <c r="L29" s="6">
-        <v>2</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="6">
-        <v>137</v>
-      </c>
-      <c r="K30" s="6">
-        <v>233</v>
-      </c>
-      <c r="L30" s="6">
-        <v>8</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="6">
-        <v>11</v>
-      </c>
-      <c r="K31" s="6">
-        <v>263</v>
-      </c>
-      <c r="L31" s="6">
-        <v>2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="6">
-        <v>59</v>
-      </c>
-      <c r="K32" s="6">
-        <v>3271</v>
-      </c>
-      <c r="L32" s="6">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="55"/>
+      <c r="G80" s="90">
+        <v>451</v>
+      </c>
+      <c r="H80" s="179" t="s">
+        <v>181</v>
+      </c>
+      <c r="I80" s="101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="180"/>
+      <c r="H81" s="179"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="180"/>
+      <c r="H82" s="179"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="180"/>
+      <c r="H83" s="179"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="180"/>
+      <c r="H84" s="179"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="180"/>
+      <c r="H85" s="179"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="180"/>
+      <c r="H86" s="179"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="180"/>
+      <c r="H87" s="179"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="180"/>
+      <c r="H88" s="179"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="180"/>
+      <c r="H89" s="179"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="180"/>
+      <c r="H90" s="179"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="180"/>
+      <c r="H91" s="179"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="179"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="179"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="179"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="179"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="179"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="179"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="179"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="179"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="179"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="179"/>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="179"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="179"/>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="179"/>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105" s="179"/>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="179"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="J18:J19"/>
+  <mergeCells count="8">
+    <mergeCell ref="F80:F91"/>
+    <mergeCell ref="H80:H106"/>
+    <mergeCell ref="F55:F76"/>
+    <mergeCell ref="H55:H79"/>
+    <mergeCell ref="F5:F16"/>
+    <mergeCell ref="H5:H32"/>
+    <mergeCell ref="H34:H54"/>
+    <mergeCell ref="F34:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:K13"/>
+  <dimension ref="D4:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G12"/>
+    <sheetView topLeftCell="B77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="90" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="90" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="90" customWidth="1"/>
+    <col min="8" max="8" width="20" style="101" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="69">
+      <c r="D5" s="163">
+        <f>F17</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="64">
         <v>0.42850694444444448</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="76">
+      <c r="D6" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="70">
         <v>97</v>
       </c>
-      <c r="H6" s="68"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="140" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="77">
+      <c r="D7" s="167" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="168"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="71">
         <v>4</v>
       </c>
-      <c r="H7" s="68"/>
+      <c r="H7" s="113"/>
     </row>
     <row r="8" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="145" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="143" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="167" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="171"/>
+      <c r="H8" s="113"/>
     </row>
     <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="70" t="s">
-        <v>165</v>
+      <c r="D9" s="65" t="s">
+        <v>156</v>
       </c>
       <c r="E9" s="30">
         <v>10</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="75" t="b">
+        <v>149</v>
+      </c>
+      <c r="G9" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="J9" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="65"/>
+      <c r="H9" s="114"/>
+      <c r="J9" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="62"/>
     </row>
     <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="78">
+      <c r="D10" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="72">
         <v>80</v>
       </c>
-      <c r="F10" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="81" t="b">
+      <c r="F10" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="112" t="b">
         <f>E$9&lt; E10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="72"/>
+      <c r="D11" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="173"/>
     </row>
     <row r="12" spans="4:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="83">
+      <c r="D12" s="165"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="76">
         <v>419</v>
       </c>
-      <c r="H12" s="56"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="64"/>
+    </row>
+    <row r="22" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="90">
+        <v>1</v>
+      </c>
+      <c r="E23" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="90">
+        <v>512</v>
+      </c>
+      <c r="G23" s="161" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="162"/>
+      <c r="G24" s="162"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="162"/>
+      <c r="G25" s="162"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="162"/>
+      <c r="G26" s="162"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="162"/>
+      <c r="G27" s="162"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="162"/>
+      <c r="G28" s="162"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="162"/>
+      <c r="G29" s="162"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="162"/>
+      <c r="G30" s="162"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="162"/>
+      <c r="G31" s="162"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="162"/>
+      <c r="G32" s="162"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="162"/>
+      <c r="G33" s="162"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="162"/>
+      <c r="G34" s="162"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="162"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="162"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="162"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="162"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="162"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="162"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="162"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="162"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="162"/>
+    </row>
+    <row r="44" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="90">
+        <v>2</v>
+      </c>
+      <c r="E44" s="158" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="90">
+        <v>451</v>
+      </c>
+      <c r="G44" s="162" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="158"/>
+      <c r="G45" s="162"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="158"/>
+      <c r="G46" s="162"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E47" s="158"/>
+      <c r="G47" s="162"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E48" s="158"/>
+      <c r="G48" s="162"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="158"/>
+      <c r="G49" s="162"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="158"/>
+      <c r="G50" s="162"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" s="158"/>
+      <c r="G51" s="162"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="158"/>
+      <c r="G52" s="162"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="158"/>
+      <c r="G53" s="162"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="158"/>
+      <c r="G54" s="162"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="162"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="162"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="162"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="162"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="162"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="162"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="162"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="162"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="162"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="162"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="162"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="162"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="162"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="162"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="162"/>
+    </row>
+    <row r="70" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="90">
+        <v>3</v>
+      </c>
+      <c r="E70" s="158" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" s="90">
+        <v>512</v>
+      </c>
+      <c r="G70" s="162" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E71" s="158"/>
+      <c r="G71" s="162"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E72" s="158"/>
+      <c r="G72" s="162"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E73" s="158"/>
+      <c r="G73" s="162"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E74" s="158"/>
+      <c r="G74" s="162"/>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E75" s="158"/>
+      <c r="G75" s="162"/>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E76" s="158"/>
+      <c r="G76" s="162"/>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E77" s="158"/>
+      <c r="G77" s="162"/>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E78" s="158"/>
+      <c r="G78" s="162"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E79" s="158"/>
+      <c r="G79" s="162"/>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E80" s="158"/>
+      <c r="G80" s="162"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" s="158"/>
+      <c r="G81" s="162"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="158"/>
+      <c r="G82" s="162"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" s="158"/>
+      <c r="G83" s="162"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="158"/>
+      <c r="G84" s="162"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="158"/>
+      <c r="G85" s="162"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="158"/>
+      <c r="G86" s="162"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="158"/>
+      <c r="G87" s="162"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="158"/>
+      <c r="G88" s="162"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="158"/>
+      <c r="G89" s="162"/>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="158"/>
+      <c r="G90" s="162"/>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="158"/>
+      <c r="G91" s="162"/>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="162"/>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="162"/>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="162"/>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="162"/>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="162"/>
+    </row>
+    <row r="97" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="90">
+        <v>4</v>
+      </c>
+      <c r="E97" s="178" t="s">
+        <v>179</v>
+      </c>
+      <c r="F97" s="90">
+        <v>451</v>
+      </c>
+      <c r="G97" s="158" t="s">
+        <v>180</v>
+      </c>
+      <c r="H97" s="101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E98" s="180"/>
+      <c r="G98" s="158"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E99" s="180"/>
+      <c r="G99" s="158"/>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E100" s="180"/>
+      <c r="G100" s="158"/>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E101" s="180"/>
+      <c r="G101" s="158"/>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E102" s="180"/>
+      <c r="G102" s="158"/>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E103" s="180"/>
+      <c r="G103" s="158"/>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E104" s="180"/>
+      <c r="G104" s="158"/>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E105" s="180"/>
+      <c r="G105" s="158"/>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E106" s="180"/>
+      <c r="G106" s="158"/>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E107" s="180"/>
+      <c r="G107" s="158"/>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E108" s="180"/>
+      <c r="G108" s="158"/>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="158"/>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="15">
+    <mergeCell ref="E97:E108"/>
+    <mergeCell ref="G97:G110"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D6:F6"/>
@@ -6232,6 +8311,12 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E70:E91"/>
+    <mergeCell ref="G44:G69"/>
+    <mergeCell ref="G70:G96"/>
+    <mergeCell ref="E23:E34"/>
+    <mergeCell ref="G23:G43"/>
+    <mergeCell ref="E44:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6241,32 +8326,36 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:P482"/>
+  <dimension ref="F5:Y482"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="I6" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="150"/>
+      <c r="I6" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="175"/>
       <c r="K6" s="31" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L6" s="31">
         <v>2</v>
@@ -6278,20 +8367,20 @@
         <v>5</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="P6" s="71">
+        <v>138</v>
+      </c>
+      <c r="P6" s="66">
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
       <c r="K7" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -6303,141 +8392,225 @@
         <v>3</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P7" s="23">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>182</v>
+      </c>
+      <c r="W9" t="s">
+        <v>183</v>
+      </c>
+      <c r="X9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="6:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="U10" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" s="181">
+        <v>4.0355696145620703</v>
+      </c>
+      <c r="W10" s="181">
+        <v>4.25710743005782</v>
+      </c>
+      <c r="X10" s="181">
+        <v>3.77391380004984</v>
+      </c>
+      <c r="Y10" s="181">
+        <v>4.4210870761961996</v>
+      </c>
+    </row>
+    <row r="11" spans="6:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="U11" s="182" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" s="181">
+        <v>4.0355696145620703</v>
+      </c>
+      <c r="W11" s="181">
+        <v>4.25710743005782</v>
+      </c>
+      <c r="X11" s="181">
+        <v>3.77391380004984</v>
+      </c>
+      <c r="Y11" s="181">
+        <v>4.4210870761961996</v>
+      </c>
+    </row>
+    <row r="12" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>3391</v>
       </c>
     </row>
-    <row r="13" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>23</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-    </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+    </row>
+    <row r="14" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>182</v>
+      </c>
+      <c r="R18" t="s">
+        <v>183</v>
+      </c>
+      <c r="S18" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="181" t="s">
+        <v>175</v>
+      </c>
+      <c r="R19" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="181" t="s">
+        <v>173</v>
+      </c>
+      <c r="T19" s="181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="181" t="s">
+        <v>175</v>
+      </c>
+      <c r="R20" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="181" t="s">
+        <v>173</v>
+      </c>
+      <c r="T20" s="181" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>107</v>
       </c>
@@ -8698,5 +10871,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/new/excel.xlsx
+++ b/new/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet10" sheetId="12" r:id="rId7"/>
     <sheet name="1new" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="193">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -779,6 +780,15 @@
       </rPr>
       <t xml:space="preserve"> informasi peranti waktu</t>
     </r>
+  </si>
+  <si>
+    <t>Hasil Enkripsi Teks 4</t>
+  </si>
+  <si>
+    <t>p dan q default</t>
+  </si>
+  <si>
+    <t>p dan q base informasi peranti</t>
   </si>
 </sst>
 </file>
@@ -928,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1196,11 +1206,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1478,6 +1501,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,6 +1589,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,32 +1634,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1667,19 +1703,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,7 +1776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1845,11 +1878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101624480"/>
-        <c:axId val="101622848"/>
+        <c:axId val="1627619024"/>
+        <c:axId val="1627616304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101624480"/>
+        <c:axId val="1627619024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,12 +1938,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101622848"/>
+        <c:crossAx val="1627616304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101622848"/>
+        <c:axId val="1627616304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +2000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101624480"/>
+        <c:crossAx val="1627619024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2258,11 +2291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="332840768"/>
-        <c:axId val="332838592"/>
+        <c:axId val="1627619568"/>
+        <c:axId val="1627621200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332840768"/>
+        <c:axId val="1627619568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332838592"/>
+        <c:crossAx val="1627621200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2313,7 +2346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332838592"/>
+        <c:axId val="1627621200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332840768"/>
+        <c:crossAx val="1627619568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4094,42 +4127,42 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="55"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="116"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="117"/>
-      <c r="E6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="55"/>
       <c r="G6" s="56"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="57" t="s">
@@ -4355,6 +4388,155 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="D3:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="186" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="187" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="186" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="185" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="162"/>
+      <c r="E7" s="163"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="162"/>
+      <c r="E8" s="163"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="162"/>
+      <c r="E9" s="163"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="162"/>
+      <c r="E10" s="163"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="162"/>
+      <c r="E11" s="163"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="162"/>
+      <c r="E12" s="163"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="162"/>
+      <c r="E13" s="163"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="162"/>
+      <c r="E14" s="163"/>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="162"/>
+      <c r="E15" s="163"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="162"/>
+      <c r="E16" s="163"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="162"/>
+      <c r="E17" s="163"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="162"/>
+      <c r="E18" s="163"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="162"/>
+      <c r="E19" s="163"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="162"/>
+      <c r="E20" s="163"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="162"/>
+      <c r="E21" s="163"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="162"/>
+      <c r="E22" s="163"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="162"/>
+      <c r="E23" s="163"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="162"/>
+      <c r="E24" s="163"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="162"/>
+      <c r="E25" s="163"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="184"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="184"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="184"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="184"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="184"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="184"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="183"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:E25"/>
+    <mergeCell ref="D5:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4390,23 +4572,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="129"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -4487,13 +4669,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="126"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="128"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -4758,26 +4940,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="141"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -4854,25 +5036,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="132"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="134"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="135"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="137"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -5160,10 +5342,10 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="125" t="s">
+      <c r="F75" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="126"/>
+      <c r="G75" s="128"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
@@ -6187,7 +6369,7 @@
     </row>
     <row r="2" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="143" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="80" t="s">
@@ -6199,32 +6381,32 @@
       <c r="G3" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="K3" s="152"/>
-      <c r="M3" s="141" t="s">
+      <c r="K3" s="148"/>
+      <c r="M3" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="156" t="s">
+      <c r="N3" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="P3" s="151" t="s">
+      <c r="P3" s="147" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="152"/>
+      <c r="Q3" s="148"/>
     </row>
     <row r="4" spans="4:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="142"/>
+      <c r="D4" s="144"/>
       <c r="E4" s="67" t="s">
         <v>132</v>
       </c>
@@ -6234,17 +6416,17 @@
       <c r="G4" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="89" t="s">
         <v>157</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="M4" s="142"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
       <c r="P4" s="89" t="s">
         <v>157</v>
       </c>
@@ -6253,7 +6435,7 @@
       </c>
     </row>
     <row r="5" spans="4:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="141">
+      <c r="D5" s="143">
         <v>1</v>
       </c>
       <c r="E5" s="53">
@@ -6262,58 +6444,58 @@
       <c r="F5" s="54">
         <v>0.2854976851851852</v>
       </c>
-      <c r="G5" s="141">
+      <c r="G5" s="143">
         <v>5</v>
       </c>
-      <c r="H5" s="141">
+      <c r="H5" s="143">
         <v>97</v>
       </c>
-      <c r="I5" s="141">
+      <c r="I5" s="143">
         <v>167</v>
       </c>
-      <c r="J5" s="149">
+      <c r="J5" s="145">
         <v>121</v>
       </c>
-      <c r="K5" s="141">
+      <c r="K5" s="143">
         <v>4873</v>
       </c>
-      <c r="M5" s="141">
+      <c r="M5" s="143">
         <v>1</v>
       </c>
-      <c r="N5" s="141">
+      <c r="N5" s="143">
         <v>61</v>
       </c>
-      <c r="O5" s="141">
+      <c r="O5" s="143">
         <v>227</v>
       </c>
-      <c r="P5" s="149">
+      <c r="P5" s="145">
         <v>191</v>
       </c>
-      <c r="Q5" s="141">
+      <c r="Q5" s="143">
         <v>13631</v>
       </c>
     </row>
     <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="142"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="67" t="s">
         <v>134</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="142"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="144"/>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="141">
+      <c r="D7" s="143">
         <v>2</v>
       </c>
       <c r="E7" s="84">
@@ -6322,58 +6504,58 @@
       <c r="F7" s="83">
         <v>0.12224537037037037</v>
       </c>
-      <c r="G7" s="141">
+      <c r="G7" s="143">
         <v>1</v>
       </c>
-      <c r="H7" s="141">
+      <c r="H7" s="143">
         <v>23</v>
       </c>
-      <c r="I7" s="141">
+      <c r="I7" s="143">
         <v>167</v>
       </c>
-      <c r="J7" s="149">
+      <c r="J7" s="145">
         <v>89</v>
       </c>
-      <c r="K7" s="141">
+      <c r="K7" s="143">
         <v>2421</v>
       </c>
-      <c r="M7" s="141">
+      <c r="M7" s="143">
         <v>2</v>
       </c>
-      <c r="N7" s="141">
+      <c r="N7" s="143">
         <v>53</v>
       </c>
-      <c r="O7" s="141">
+      <c r="O7" s="143">
         <v>331</v>
       </c>
-      <c r="P7" s="149">
+      <c r="P7" s="145">
         <v>301</v>
       </c>
-      <c r="Q7" s="141">
+      <c r="Q7" s="143">
         <v>5701</v>
       </c>
     </row>
     <row r="8" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="142"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="142"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="144"/>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="141">
+      <c r="D9" s="143">
         <v>3</v>
       </c>
       <c r="E9" s="84">
@@ -6382,58 +6564,58 @@
       <c r="F9" s="83">
         <v>0.1257175925925926</v>
       </c>
-      <c r="G9" s="141">
+      <c r="G9" s="143">
         <v>1</v>
       </c>
-      <c r="H9" s="141">
+      <c r="H9" s="143">
         <v>41</v>
       </c>
-      <c r="I9" s="141">
+      <c r="I9" s="143">
         <v>23</v>
       </c>
-      <c r="J9" s="149">
+      <c r="J9" s="145">
         <v>27</v>
       </c>
-      <c r="K9" s="141">
+      <c r="K9" s="143">
         <v>163</v>
       </c>
-      <c r="M9" s="141">
+      <c r="M9" s="143">
         <v>3</v>
       </c>
-      <c r="N9" s="141">
+      <c r="N9" s="143">
         <v>89</v>
       </c>
-      <c r="O9" s="141">
+      <c r="O9" s="143">
         <v>409</v>
       </c>
-      <c r="P9" s="149">
+      <c r="P9" s="145">
         <v>281</v>
       </c>
-      <c r="Q9" s="141">
+      <c r="Q9" s="143">
         <v>12905</v>
       </c>
     </row>
     <row r="10" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="142"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="142"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="144"/>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D11" s="141">
+      <c r="D11" s="143">
         <v>4</v>
       </c>
       <c r="E11" s="84">
@@ -6442,58 +6624,58 @@
       <c r="F11" s="83">
         <v>0.5875231481481481</v>
       </c>
-      <c r="G11" s="141">
+      <c r="G11" s="143">
         <v>21</v>
       </c>
-      <c r="H11" s="141">
+      <c r="H11" s="143">
         <v>269</v>
       </c>
-      <c r="I11" s="141">
+      <c r="I11" s="143">
         <v>137</v>
       </c>
-      <c r="J11" s="149">
+      <c r="J11" s="145">
         <v>73</v>
       </c>
-      <c r="K11" s="141">
+      <c r="K11" s="143">
         <v>32953</v>
       </c>
-      <c r="M11" s="141">
+      <c r="M11" s="143">
         <v>4</v>
       </c>
-      <c r="N11" s="141">
+      <c r="N11" s="143">
         <v>257</v>
       </c>
-      <c r="O11" s="141">
+      <c r="O11" s="143">
         <v>137</v>
       </c>
-      <c r="P11" s="149">
+      <c r="P11" s="145">
         <v>71</v>
       </c>
-      <c r="Q11" s="141">
+      <c r="Q11" s="143">
         <v>14711</v>
       </c>
     </row>
     <row r="12" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="142"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="150"/>
-      <c r="Q12" s="142"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="144"/>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="141">
+      <c r="D13" s="143">
         <v>5</v>
       </c>
       <c r="E13" s="84">
@@ -6502,58 +6684,58 @@
       <c r="F13" s="86">
         <v>0.25766203703703705</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="143">
         <v>4</v>
       </c>
-      <c r="H13" s="141">
+      <c r="H13" s="143">
         <v>97</v>
       </c>
-      <c r="I13" s="141">
+      <c r="I13" s="143">
         <v>241</v>
       </c>
-      <c r="J13" s="149">
+      <c r="J13" s="145">
         <v>199</v>
       </c>
-      <c r="K13" s="141">
+      <c r="K13" s="143">
         <v>10999</v>
       </c>
-      <c r="M13" s="141">
+      <c r="M13" s="143">
         <v>5</v>
       </c>
-      <c r="N13" s="141">
+      <c r="N13" s="143">
         <v>61</v>
       </c>
-      <c r="O13" s="141">
+      <c r="O13" s="143">
         <v>113</v>
       </c>
-      <c r="P13" s="149">
+      <c r="P13" s="145">
         <v>137</v>
       </c>
-      <c r="Q13" s="141">
+      <c r="Q13" s="143">
         <v>1913</v>
       </c>
     </row>
     <row r="14" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="142"/>
+      <c r="D14" s="144"/>
       <c r="E14" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F14" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="142"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="144"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="141">
+      <c r="D15" s="143">
         <v>6</v>
       </c>
       <c r="E15" s="84">
@@ -6562,58 +6744,58 @@
       <c r="F15" s="86">
         <v>0.51113425925925926</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G15" s="143">
         <v>23</v>
       </c>
-      <c r="H15" s="141">
+      <c r="H15" s="143">
         <v>227</v>
       </c>
-      <c r="I15" s="141">
+      <c r="I15" s="143">
         <v>367</v>
       </c>
-      <c r="J15" s="149">
+      <c r="J15" s="145">
         <v>227</v>
       </c>
-      <c r="K15" s="141">
+      <c r="K15" s="143">
         <v>17855</v>
       </c>
-      <c r="M15" s="141">
+      <c r="M15" s="143">
         <v>6</v>
       </c>
-      <c r="N15" s="141">
+      <c r="N15" s="143">
         <v>229</v>
       </c>
-      <c r="O15" s="141">
+      <c r="O15" s="143">
         <v>211</v>
       </c>
-      <c r="P15" s="149">
+      <c r="P15" s="145">
         <v>221</v>
       </c>
-      <c r="Q15" s="141">
+      <c r="Q15" s="143">
         <v>33581</v>
       </c>
     </row>
     <row r="16" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="142"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F16" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="142"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="144"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D17" s="141">
+      <c r="D17" s="143">
         <v>7</v>
       </c>
       <c r="E17" s="84">
@@ -6622,58 +6804,58 @@
       <c r="F17" s="86">
         <v>0.76460648148148147</v>
       </c>
-      <c r="G17" s="141">
+      <c r="G17" s="143">
         <v>17</v>
       </c>
-      <c r="H17" s="141">
+      <c r="H17" s="143">
         <v>367</v>
       </c>
-      <c r="I17" s="141">
+      <c r="I17" s="143">
         <v>487</v>
       </c>
-      <c r="J17" s="149">
+      <c r="J17" s="145">
         <v>283</v>
       </c>
-      <c r="K17" s="141">
+      <c r="K17" s="143">
         <v>143935</v>
       </c>
-      <c r="M17" s="141">
+      <c r="M17" s="143">
         <v>7</v>
       </c>
-      <c r="N17" s="141">
+      <c r="N17" s="143">
         <v>113</v>
       </c>
-      <c r="O17" s="141">
+      <c r="O17" s="143">
         <v>2</v>
       </c>
-      <c r="P17" s="149">
+      <c r="P17" s="145">
         <v>3</v>
       </c>
-      <c r="Q17" s="141">
+      <c r="Q17" s="143">
         <v>187</v>
       </c>
     </row>
     <row r="18" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="142"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F18" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="142"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="144"/>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D19" s="141">
+      <c r="D19" s="143">
         <v>8</v>
       </c>
       <c r="E19" s="84">
@@ -6682,61 +6864,61 @@
       <c r="F19" s="83">
         <v>0.60141203703703705</v>
       </c>
-      <c r="G19" s="141">
+      <c r="G19" s="143">
         <v>21</v>
       </c>
-      <c r="H19" s="141">
+      <c r="H19" s="143">
         <v>269</v>
       </c>
-      <c r="I19" s="141">
+      <c r="I19" s="143">
         <v>53</v>
       </c>
-      <c r="J19" s="149">
+      <c r="J19" s="145">
         <v>35</v>
       </c>
-      <c r="K19" s="141">
+      <c r="K19" s="143">
         <v>11547</v>
       </c>
-      <c r="M19" s="141">
+      <c r="M19" s="143">
         <v>8</v>
       </c>
-      <c r="N19" s="141">
+      <c r="N19" s="143">
         <v>83</v>
       </c>
-      <c r="O19" s="141">
+      <c r="O19" s="143">
         <v>139</v>
       </c>
-      <c r="P19" s="149">
+      <c r="P19" s="145">
         <v>109</v>
       </c>
-      <c r="Q19" s="141">
+      <c r="Q19" s="143">
         <v>6229</v>
       </c>
     </row>
     <row r="20" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="142"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="150"/>
-      <c r="Q20" s="142"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="144"/>
       <c r="R20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D21" s="141">
+      <c r="D21" s="143">
         <v>9</v>
       </c>
       <c r="E21" s="84">
@@ -6745,34 +6927,34 @@
       <c r="F21" s="86">
         <v>0.56321759259259263</v>
       </c>
-      <c r="G21" s="141">
+      <c r="G21" s="143">
         <v>22</v>
       </c>
-      <c r="H21" s="141">
+      <c r="H21" s="143">
         <v>241</v>
       </c>
-      <c r="I21" s="141">
+      <c r="I21" s="143">
         <v>151</v>
       </c>
-      <c r="J21" s="149">
+      <c r="J21" s="145">
         <v>137</v>
       </c>
-      <c r="K21" s="141">
+      <c r="K21" s="143">
         <v>22073</v>
       </c>
-      <c r="M21" s="141">
+      <c r="M21" s="143">
         <v>9</v>
       </c>
-      <c r="N21" s="141">
+      <c r="N21" s="143">
         <v>7</v>
       </c>
-      <c r="O21" s="141">
+      <c r="O21" s="143">
         <v>173</v>
       </c>
-      <c r="P21" s="149">
+      <c r="P21" s="145">
         <v>125</v>
       </c>
-      <c r="Q21" s="141">
+      <c r="Q21" s="143">
         <v>677</v>
       </c>
       <c r="R21">
@@ -6780,26 +6962,26 @@
       </c>
     </row>
     <row r="22" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="142"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F22" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="142"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="144"/>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D23" s="141">
+      <c r="D23" s="143">
         <v>10</v>
       </c>
       <c r="E23" s="84">
@@ -6808,62 +6990,62 @@
       <c r="F23" s="83">
         <v>0.19168981481481481</v>
       </c>
-      <c r="G23" s="141">
+      <c r="G23" s="143">
         <v>2</v>
       </c>
-      <c r="H23" s="141">
+      <c r="H23" s="143">
         <v>59</v>
       </c>
-      <c r="I23" s="141">
+      <c r="I23" s="143">
         <v>263</v>
       </c>
-      <c r="J23" s="149">
+      <c r="J23" s="145">
         <v>117</v>
       </c>
-      <c r="K23" s="141">
+      <c r="K23" s="143">
         <v>11949</v>
       </c>
-      <c r="M23" s="141">
+      <c r="M23" s="143">
         <v>10</v>
       </c>
-      <c r="N23" s="141">
+      <c r="N23" s="143">
         <v>127</v>
       </c>
-      <c r="O23" s="141">
+      <c r="O23" s="143">
         <v>389</v>
       </c>
-      <c r="P23" s="149">
+      <c r="P23" s="145">
         <v>275</v>
       </c>
-      <c r="Q23" s="141">
+      <c r="Q23" s="143">
         <v>30755</v>
       </c>
     </row>
     <row r="24" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="142"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F24" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="142"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="144"/>
       <c r="R24">
         <f>R20+R21</f>
         <v>7.83</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D25" s="141">
+      <c r="D25" s="143">
         <v>11</v>
       </c>
       <c r="E25" s="84">
@@ -6872,34 +7054,34 @@
       <c r="F25" s="86">
         <v>0.65349537037037042</v>
       </c>
-      <c r="G25" s="141">
+      <c r="G25" s="143">
         <v>20</v>
       </c>
-      <c r="H25" s="141">
+      <c r="H25" s="143">
         <v>283</v>
       </c>
-      <c r="I25" s="141">
+      <c r="I25" s="143">
         <v>383</v>
       </c>
-      <c r="J25" s="149">
+      <c r="J25" s="145">
         <v>239</v>
       </c>
-      <c r="K25" s="141">
+      <c r="K25" s="143">
         <v>51383</v>
       </c>
-      <c r="M25" s="141">
+      <c r="M25" s="143">
         <v>11</v>
       </c>
-      <c r="N25" s="141">
+      <c r="N25" s="143">
         <v>97</v>
       </c>
-      <c r="O25" s="141">
+      <c r="O25" s="143">
         <v>401</v>
       </c>
-      <c r="P25" s="149">
+      <c r="P25" s="145">
         <v>299</v>
       </c>
-      <c r="Q25" s="141">
+      <c r="Q25" s="143">
         <v>899</v>
       </c>
       <c r="R25">
@@ -6908,26 +7090,26 @@
       </c>
     </row>
     <row r="26" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="142"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F26" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="150"/>
-      <c r="Q26" s="142"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="144"/>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D27" s="141">
+      <c r="D27" s="143">
         <v>12</v>
       </c>
       <c r="E27" s="84">
@@ -6936,74 +7118,74 @@
       <c r="F27" s="83">
         <v>0.49030092592592589</v>
       </c>
-      <c r="G27" s="141">
+      <c r="G27" s="143">
         <v>9</v>
       </c>
-      <c r="H27" s="141">
+      <c r="H27" s="143">
         <v>197</v>
       </c>
-      <c r="I27" s="141">
+      <c r="I27" s="143">
         <v>503</v>
       </c>
-      <c r="J27" s="149">
+      <c r="J27" s="145">
         <v>225</v>
       </c>
-      <c r="K27" s="141">
+      <c r="K27" s="143">
         <v>20553</v>
       </c>
-      <c r="M27" s="141">
+      <c r="M27" s="143">
         <v>12</v>
       </c>
-      <c r="N27" s="141">
+      <c r="N27" s="143">
         <v>71</v>
       </c>
-      <c r="O27" s="141">
+      <c r="O27" s="143">
         <v>53</v>
       </c>
-      <c r="P27" s="149">
+      <c r="P27" s="145">
         <v>53</v>
       </c>
-      <c r="Q27" s="141">
+      <c r="Q27" s="143">
         <v>1717</v>
       </c>
     </row>
     <row r="28" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="142"/>
+      <c r="D28" s="144"/>
       <c r="E28" s="81" t="s">
         <v>135</v>
       </c>
       <c r="F28" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="142"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="144"/>
     </row>
     <row r="29" spans="4:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="153" t="s">
+      <c r="D29" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="M29" s="143" t="s">
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="M29" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="145"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="156"/>
     </row>
     <row r="30" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="106"/>
@@ -7014,23 +7196,23 @@
       <c r="I30" s="107"/>
       <c r="J30" s="107"/>
       <c r="K30" s="108"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="148"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="159"/>
     </row>
     <row r="31" spans="4:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="153" t="s">
+      <c r="D31" s="149" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
       <c r="M31" s="109" t="s">
         <v>170</v>
       </c>
@@ -7055,170 +7237,170 @@
       <c r="Q32" s="105"/>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D33" s="141"/>
+      <c r="D33" s="143"/>
       <c r="E33" s="53"/>
       <c r="F33" s="54"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
       <c r="J33" s="82"/>
-      <c r="K33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
+      <c r="K33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
       <c r="P33" s="82"/>
-      <c r="Q33" s="141"/>
+      <c r="Q33" s="143"/>
     </row>
     <row r="34" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="142"/>
+      <c r="D34" s="144"/>
       <c r="E34" s="67"/>
       <c r="F34" s="52"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
       <c r="J34" s="82"/>
-      <c r="K34" s="142"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
+      <c r="K34" s="144"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="144"/>
       <c r="P34" s="82"/>
-      <c r="Q34" s="142"/>
+      <c r="Q34" s="144"/>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D35" s="141"/>
+      <c r="D35" s="143"/>
       <c r="E35" s="53"/>
       <c r="F35" s="54"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="141"/>
+      <c r="K35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="143"/>
       <c r="P35" s="82"/>
-      <c r="Q35" s="141"/>
+      <c r="Q35" s="143"/>
     </row>
     <row r="36" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="142"/>
+      <c r="D36" s="144"/>
       <c r="E36" s="67"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
       <c r="J36" s="82"/>
-      <c r="K36" s="142"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="142"/>
+      <c r="K36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
       <c r="P36" s="82"/>
-      <c r="Q36" s="142"/>
+      <c r="Q36" s="144"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D37" s="141"/>
+      <c r="D37" s="143"/>
       <c r="E37" s="53"/>
       <c r="F37" s="54"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
       <c r="J37" s="82"/>
-      <c r="K37" s="141"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
+      <c r="K37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
       <c r="P37" s="82"/>
-      <c r="Q37" s="141"/>
+      <c r="Q37" s="143"/>
     </row>
     <row r="38" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="142"/>
+      <c r="D38" s="144"/>
       <c r="E38" s="67"/>
       <c r="F38" s="52"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
       <c r="J38" s="82"/>
-      <c r="K38" s="142"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="142"/>
-      <c r="O38" s="142"/>
+      <c r="K38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="144"/>
       <c r="P38" s="82"/>
-      <c r="Q38" s="142"/>
+      <c r="Q38" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="M29:Q30"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="D31:K31"/>
     <mergeCell ref="D29:K29"/>
@@ -7243,79 +7425,79 @@
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="M29:Q30"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7327,8 +7509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7361,13 +7543,13 @@
       <c r="E5" s="90">
         <v>1</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="164" t="s">
         <v>165</v>
       </c>
       <c r="G5" s="90">
         <v>512</v>
       </c>
-      <c r="H5" s="161" t="s">
+      <c r="H5" s="166" t="s">
         <v>166</v>
       </c>
       <c r="I5" s="101" t="s">
@@ -7375,99 +7557,99 @@
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="160"/>
-      <c r="H6" s="162"/>
+      <c r="F6" s="165"/>
+      <c r="H6" s="167"/>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="160"/>
-      <c r="H7" s="162"/>
+      <c r="F7" s="165"/>
+      <c r="H7" s="167"/>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="160"/>
-      <c r="H8" s="162"/>
+      <c r="F8" s="165"/>
+      <c r="H8" s="167"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="160"/>
-      <c r="H9" s="162"/>
+      <c r="F9" s="165"/>
+      <c r="H9" s="167"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="160"/>
-      <c r="H10" s="162"/>
+      <c r="F10" s="165"/>
+      <c r="H10" s="167"/>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="160"/>
-      <c r="H11" s="162"/>
+      <c r="F11" s="165"/>
+      <c r="H11" s="167"/>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="160"/>
-      <c r="H12" s="162"/>
+      <c r="F12" s="165"/>
+      <c r="H12" s="167"/>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="160"/>
-      <c r="H13" s="162"/>
+      <c r="F13" s="165"/>
+      <c r="H13" s="167"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="160"/>
-      <c r="H14" s="162"/>
+      <c r="F14" s="165"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="160"/>
-      <c r="H15" s="162"/>
+      <c r="F15" s="165"/>
+      <c r="H15" s="167"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="160"/>
-      <c r="H16" s="162"/>
+      <c r="F16" s="165"/>
+      <c r="H16" s="167"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="99"/>
-      <c r="H17" s="162"/>
+      <c r="H17" s="167"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="99"/>
-      <c r="H18" s="162"/>
+      <c r="H18" s="167"/>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="99"/>
-      <c r="H19" s="162"/>
+      <c r="H19" s="167"/>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="162"/>
+      <c r="H20" s="167"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="162"/>
+      <c r="H21" s="167"/>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="162"/>
+      <c r="H22" s="167"/>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="162"/>
+      <c r="H23" s="167"/>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="162"/>
+      <c r="H24" s="167"/>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="162"/>
+      <c r="H25" s="167"/>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="162"/>
+      <c r="H26" s="167"/>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="162"/>
+      <c r="H27" s="167"/>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="162"/>
+      <c r="H28" s="167"/>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="162"/>
+      <c r="H29" s="167"/>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="162"/>
+      <c r="H30" s="167"/>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="162"/>
+      <c r="H31" s="167"/>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="162"/>
+      <c r="H32" s="167"/>
     </row>
     <row r="33" spans="5:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H33" s="100"/>
@@ -7476,13 +7658,13 @@
       <c r="E34" s="90">
         <v>2</v>
       </c>
-      <c r="F34" s="158" t="s">
+      <c r="F34" s="163" t="s">
         <v>169</v>
       </c>
       <c r="G34" s="90">
         <v>451</v>
       </c>
-      <c r="H34" s="158" t="s">
+      <c r="H34" s="163" t="s">
         <v>168</v>
       </c>
       <c r="I34" s="101" t="s">
@@ -7490,88 +7672,88 @@
       </c>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="158"/>
-      <c r="H35" s="158"/>
+      <c r="F35" s="163"/>
+      <c r="H35" s="163"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="158"/>
-      <c r="H36" s="158"/>
+      <c r="F36" s="163"/>
+      <c r="H36" s="163"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="158"/>
-      <c r="H37" s="158"/>
+      <c r="F37" s="163"/>
+      <c r="H37" s="163"/>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="158"/>
-      <c r="H38" s="158"/>
+      <c r="F38" s="163"/>
+      <c r="H38" s="163"/>
     </row>
     <row r="39" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="158"/>
-      <c r="H39" s="158"/>
+      <c r="F39" s="163"/>
+      <c r="H39" s="163"/>
     </row>
     <row r="40" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="158"/>
-      <c r="H40" s="158"/>
+      <c r="F40" s="163"/>
+      <c r="H40" s="163"/>
     </row>
     <row r="41" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="158"/>
-      <c r="H41" s="158"/>
+      <c r="F41" s="163"/>
+      <c r="H41" s="163"/>
     </row>
     <row r="42" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="158"/>
-      <c r="H42" s="158"/>
+      <c r="F42" s="163"/>
+      <c r="H42" s="163"/>
     </row>
     <row r="43" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="158"/>
-      <c r="H43" s="158"/>
+      <c r="F43" s="163"/>
+      <c r="H43" s="163"/>
     </row>
     <row r="44" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="158"/>
-      <c r="H44" s="158"/>
+      <c r="F44" s="163"/>
+      <c r="H44" s="163"/>
     </row>
     <row r="45" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F45" s="100"/>
-      <c r="H45" s="158"/>
+      <c r="H45" s="163"/>
     </row>
     <row r="46" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F46" s="100"/>
-      <c r="H46" s="158"/>
+      <c r="H46" s="163"/>
     </row>
     <row r="47" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="158"/>
+      <c r="H47" s="163"/>
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H48" s="158"/>
+      <c r="H48" s="163"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H49" s="158"/>
+      <c r="H49" s="163"/>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H50" s="158"/>
+      <c r="H50" s="163"/>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H51" s="158"/>
+      <c r="H51" s="163"/>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H52" s="158"/>
+      <c r="H52" s="163"/>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H53" s="158"/>
+      <c r="H53" s="163"/>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H54" s="158"/>
+      <c r="H54" s="163"/>
     </row>
     <row r="55" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="90">
         <v>3</v>
       </c>
-      <c r="F55" s="158" t="s">
+      <c r="F55" s="163" t="s">
         <v>171</v>
       </c>
       <c r="G55" s="90">
         <v>512</v>
       </c>
-      <c r="H55" s="158" t="s">
+      <c r="H55" s="163" t="s">
         <v>172</v>
       </c>
       <c r="I55" s="101" t="s">
@@ -7579,109 +7761,109 @@
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F56" s="158"/>
-      <c r="H56" s="158"/>
+      <c r="F56" s="163"/>
+      <c r="H56" s="163"/>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F57" s="158"/>
-      <c r="H57" s="158"/>
+      <c r="F57" s="163"/>
+      <c r="H57" s="163"/>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F58" s="158"/>
-      <c r="H58" s="158"/>
+      <c r="F58" s="163"/>
+      <c r="H58" s="163"/>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="158"/>
-      <c r="H59" s="158"/>
+      <c r="F59" s="163"/>
+      <c r="H59" s="163"/>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="158"/>
-      <c r="H60" s="158"/>
+      <c r="F60" s="163"/>
+      <c r="H60" s="163"/>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F61" s="158"/>
-      <c r="H61" s="158"/>
+      <c r="F61" s="163"/>
+      <c r="H61" s="163"/>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F62" s="158"/>
-      <c r="H62" s="158"/>
+      <c r="F62" s="163"/>
+      <c r="H62" s="163"/>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="158"/>
-      <c r="H63" s="158"/>
+      <c r="F63" s="163"/>
+      <c r="H63" s="163"/>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F64" s="158"/>
-      <c r="H64" s="158"/>
+      <c r="F64" s="163"/>
+      <c r="H64" s="163"/>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F65" s="158"/>
-      <c r="H65" s="158"/>
+      <c r="F65" s="163"/>
+      <c r="H65" s="163"/>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="158"/>
-      <c r="H66" s="158"/>
+      <c r="F66" s="163"/>
+      <c r="H66" s="163"/>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="158"/>
-      <c r="H67" s="158"/>
+      <c r="F67" s="163"/>
+      <c r="H67" s="163"/>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="158"/>
-      <c r="H68" s="158"/>
+      <c r="F68" s="163"/>
+      <c r="H68" s="163"/>
     </row>
     <row r="69" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="158"/>
-      <c r="H69" s="158"/>
+      <c r="F69" s="163"/>
+      <c r="H69" s="163"/>
     </row>
     <row r="70" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F70" s="158"/>
-      <c r="H70" s="158"/>
+      <c r="F70" s="163"/>
+      <c r="H70" s="163"/>
     </row>
     <row r="71" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F71" s="158"/>
-      <c r="H71" s="158"/>
+      <c r="F71" s="163"/>
+      <c r="H71" s="163"/>
     </row>
     <row r="72" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F72" s="158"/>
-      <c r="H72" s="158"/>
+      <c r="F72" s="163"/>
+      <c r="H72" s="163"/>
     </row>
     <row r="73" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F73" s="158"/>
-      <c r="H73" s="158"/>
+      <c r="F73" s="163"/>
+      <c r="H73" s="163"/>
     </row>
     <row r="74" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F74" s="158"/>
-      <c r="H74" s="158"/>
+      <c r="F74" s="163"/>
+      <c r="H74" s="163"/>
     </row>
     <row r="75" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F75" s="158"/>
-      <c r="H75" s="158"/>
+      <c r="F75" s="163"/>
+      <c r="H75" s="163"/>
     </row>
     <row r="76" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="F76" s="158"/>
-      <c r="H76" s="158"/>
+      <c r="F76" s="163"/>
+      <c r="H76" s="163"/>
     </row>
     <row r="77" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H77" s="158"/>
+      <c r="H77" s="163"/>
     </row>
     <row r="78" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H78" s="158"/>
+      <c r="H78" s="163"/>
     </row>
     <row r="79" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H79" s="158"/>
+      <c r="H79" s="163"/>
     </row>
     <row r="80" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E80" s="90">
         <v>4</v>
       </c>
-      <c r="F80" s="178" t="s">
+      <c r="F80" s="160" t="s">
         <v>179</v>
       </c>
       <c r="G80" s="90">
         <v>451</v>
       </c>
-      <c r="H80" s="179" t="s">
+      <c r="H80" s="162" t="s">
         <v>181</v>
       </c>
       <c r="I80" s="101" t="s">
@@ -7689,93 +7871,93 @@
       </c>
     </row>
     <row r="81" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F81" s="180"/>
-      <c r="H81" s="179"/>
+      <c r="F81" s="161"/>
+      <c r="H81" s="162"/>
     </row>
     <row r="82" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F82" s="180"/>
-      <c r="H82" s="179"/>
+      <c r="F82" s="161"/>
+      <c r="H82" s="162"/>
     </row>
     <row r="83" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F83" s="180"/>
-      <c r="H83" s="179"/>
+      <c r="F83" s="161"/>
+      <c r="H83" s="162"/>
     </row>
     <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F84" s="180"/>
-      <c r="H84" s="179"/>
+      <c r="F84" s="161"/>
+      <c r="H84" s="162"/>
     </row>
     <row r="85" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F85" s="180"/>
-      <c r="H85" s="179"/>
+      <c r="F85" s="161"/>
+      <c r="H85" s="162"/>
     </row>
     <row r="86" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F86" s="180"/>
-      <c r="H86" s="179"/>
+      <c r="F86" s="161"/>
+      <c r="H86" s="162"/>
     </row>
     <row r="87" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F87" s="180"/>
-      <c r="H87" s="179"/>
+      <c r="F87" s="161"/>
+      <c r="H87" s="162"/>
     </row>
     <row r="88" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F88" s="180"/>
-      <c r="H88" s="179"/>
+      <c r="F88" s="161"/>
+      <c r="H88" s="162"/>
     </row>
     <row r="89" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F89" s="180"/>
-      <c r="H89" s="179"/>
+      <c r="F89" s="161"/>
+      <c r="H89" s="162"/>
     </row>
     <row r="90" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F90" s="180"/>
-      <c r="H90" s="179"/>
+      <c r="F90" s="161"/>
+      <c r="H90" s="162"/>
     </row>
     <row r="91" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F91" s="180"/>
-      <c r="H91" s="179"/>
+      <c r="F91" s="161"/>
+      <c r="H91" s="162"/>
     </row>
     <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H92" s="179"/>
+      <c r="H92" s="162"/>
     </row>
     <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="179"/>
+      <c r="H93" s="162"/>
     </row>
     <row r="94" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="179"/>
+      <c r="H94" s="162"/>
     </row>
     <row r="95" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H95" s="179"/>
+      <c r="H95" s="162"/>
     </row>
     <row r="96" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H96" s="179"/>
+      <c r="H96" s="162"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" s="179"/>
+      <c r="H97" s="162"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" s="179"/>
+      <c r="H98" s="162"/>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="179"/>
+      <c r="H99" s="162"/>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" s="179"/>
+      <c r="H100" s="162"/>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H101" s="179"/>
+      <c r="H101" s="162"/>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H102" s="179"/>
+      <c r="H102" s="162"/>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H103" s="179"/>
+      <c r="H103" s="162"/>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H104" s="179"/>
+      <c r="H104" s="162"/>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" s="179"/>
+      <c r="H105" s="162"/>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H106" s="179"/>
+      <c r="H106" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7797,8 +7979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="B77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView topLeftCell="B100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7814,48 +7996,48 @@
   <sheetData>
     <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="163">
+      <c r="D5" s="168">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
       <c r="G5" s="64">
         <v>0.42850694444444448</v>
       </c>
       <c r="H5" s="113"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="167" t="s">
+      <c r="D6" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="F6" s="169"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
       <c r="G6" s="70">
         <v>97</v>
       </c>
       <c r="H6" s="113"/>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="169"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="174"/>
       <c r="G7" s="71">
         <v>4</v>
       </c>
       <c r="H7" s="113"/>
     </row>
     <row r="8" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="172" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170" t="s">
+      <c r="E8" s="174"/>
+      <c r="F8" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="171"/>
+      <c r="G8" s="176"/>
       <c r="H8" s="113"/>
     </row>
     <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7896,13 +8078,13 @@
       <c r="D11" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="173"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
     </row>
     <row r="12" spans="4:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="165"/>
-      <c r="E12" s="166"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
       <c r="F12" s="77" t="s">
         <v>143</v>
       </c>
@@ -7931,13 +8113,13 @@
       <c r="D23" s="90">
         <v>1</v>
       </c>
-      <c r="E23" s="161" t="s">
+      <c r="E23" s="166" t="s">
         <v>165</v>
       </c>
       <c r="F23" s="90">
         <v>512</v>
       </c>
-      <c r="G23" s="161" t="s">
+      <c r="G23" s="166" t="s">
         <v>174</v>
       </c>
       <c r="H23" s="101" t="s">
@@ -7945,87 +8127,87 @@
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="162"/>
-      <c r="G24" s="162"/>
+      <c r="E24" s="167"/>
+      <c r="G24" s="167"/>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="162"/>
-      <c r="G25" s="162"/>
+      <c r="E25" s="167"/>
+      <c r="G25" s="167"/>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="162"/>
-      <c r="G26" s="162"/>
+      <c r="E26" s="167"/>
+      <c r="G26" s="167"/>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="E27" s="167"/>
+      <c r="G27" s="167"/>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="E28" s="167"/>
+      <c r="G28" s="167"/>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="162"/>
-      <c r="G29" s="162"/>
+      <c r="E29" s="167"/>
+      <c r="G29" s="167"/>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="162"/>
-      <c r="G30" s="162"/>
+      <c r="E30" s="167"/>
+      <c r="G30" s="167"/>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="162"/>
-      <c r="G31" s="162"/>
+      <c r="E31" s="167"/>
+      <c r="G31" s="167"/>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="162"/>
-      <c r="G32" s="162"/>
+      <c r="E32" s="167"/>
+      <c r="G32" s="167"/>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="162"/>
-      <c r="G33" s="162"/>
+      <c r="E33" s="167"/>
+      <c r="G33" s="167"/>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="162"/>
-      <c r="G34" s="162"/>
+      <c r="E34" s="167"/>
+      <c r="G34" s="167"/>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="162"/>
+      <c r="G35" s="167"/>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G36" s="162"/>
+      <c r="G36" s="167"/>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="162"/>
+      <c r="G37" s="167"/>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G38" s="162"/>
+      <c r="G38" s="167"/>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G39" s="162"/>
+      <c r="G39" s="167"/>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="162"/>
+      <c r="G40" s="167"/>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="162"/>
+      <c r="G41" s="167"/>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G42" s="162"/>
+      <c r="G42" s="167"/>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G43" s="162"/>
+      <c r="G43" s="167"/>
     </row>
     <row r="44" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="90">
         <v>2</v>
       </c>
-      <c r="E44" s="158" t="s">
+      <c r="E44" s="163" t="s">
         <v>169</v>
       </c>
       <c r="F44" s="90">
         <v>451</v>
       </c>
-      <c r="G44" s="162" t="s">
+      <c r="G44" s="167" t="s">
         <v>176</v>
       </c>
       <c r="H44" s="101" t="s">
@@ -8033,101 +8215,101 @@
       </c>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="158"/>
-      <c r="G45" s="162"/>
+      <c r="E45" s="163"/>
+      <c r="G45" s="167"/>
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="158"/>
-      <c r="G46" s="162"/>
+      <c r="E46" s="163"/>
+      <c r="G46" s="167"/>
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="158"/>
-      <c r="G47" s="162"/>
+      <c r="E47" s="163"/>
+      <c r="G47" s="167"/>
     </row>
     <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E48" s="158"/>
-      <c r="G48" s="162"/>
+      <c r="E48" s="163"/>
+      <c r="G48" s="167"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="158"/>
-      <c r="G49" s="162"/>
+      <c r="E49" s="163"/>
+      <c r="G49" s="167"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="158"/>
-      <c r="G50" s="162"/>
+      <c r="E50" s="163"/>
+      <c r="G50" s="167"/>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="158"/>
-      <c r="G51" s="162"/>
+      <c r="E51" s="163"/>
+      <c r="G51" s="167"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="158"/>
-      <c r="G52" s="162"/>
+      <c r="E52" s="163"/>
+      <c r="G52" s="167"/>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="158"/>
-      <c r="G53" s="162"/>
+      <c r="E53" s="163"/>
+      <c r="G53" s="167"/>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="158"/>
-      <c r="G54" s="162"/>
+      <c r="E54" s="163"/>
+      <c r="G54" s="167"/>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="162"/>
+      <c r="G55" s="167"/>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="162"/>
+      <c r="G56" s="167"/>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G57" s="162"/>
+      <c r="G57" s="167"/>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="162"/>
+      <c r="G58" s="167"/>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="162"/>
+      <c r="G59" s="167"/>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G60" s="162"/>
+      <c r="G60" s="167"/>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="162"/>
+      <c r="G61" s="167"/>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G62" s="162"/>
+      <c r="G62" s="167"/>
     </row>
     <row r="63" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G63" s="162"/>
+      <c r="G63" s="167"/>
     </row>
     <row r="64" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G64" s="162"/>
+      <c r="G64" s="167"/>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="162"/>
+      <c r="G65" s="167"/>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="162"/>
+      <c r="G66" s="167"/>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="162"/>
+      <c r="G67" s="167"/>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="162"/>
+      <c r="G68" s="167"/>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="162"/>
+      <c r="G69" s="167"/>
     </row>
     <row r="70" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="90">
         <v>3</v>
       </c>
-      <c r="E70" s="158" t="s">
+      <c r="E70" s="163" t="s">
         <v>171</v>
       </c>
       <c r="F70" s="90">
         <v>512</v>
       </c>
-      <c r="G70" s="162" t="s">
+      <c r="G70" s="167" t="s">
         <v>177</v>
       </c>
       <c r="H70" s="101" t="s">
@@ -8135,115 +8317,115 @@
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E71" s="158"/>
-      <c r="G71" s="162"/>
+      <c r="E71" s="163"/>
+      <c r="G71" s="167"/>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E72" s="158"/>
-      <c r="G72" s="162"/>
+      <c r="E72" s="163"/>
+      <c r="G72" s="167"/>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E73" s="158"/>
-      <c r="G73" s="162"/>
+      <c r="E73" s="163"/>
+      <c r="G73" s="167"/>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E74" s="158"/>
-      <c r="G74" s="162"/>
+      <c r="E74" s="163"/>
+      <c r="G74" s="167"/>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E75" s="158"/>
-      <c r="G75" s="162"/>
+      <c r="E75" s="163"/>
+      <c r="G75" s="167"/>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E76" s="158"/>
-      <c r="G76" s="162"/>
+      <c r="E76" s="163"/>
+      <c r="G76" s="167"/>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E77" s="158"/>
-      <c r="G77" s="162"/>
+      <c r="E77" s="163"/>
+      <c r="G77" s="167"/>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E78" s="158"/>
-      <c r="G78" s="162"/>
+      <c r="E78" s="163"/>
+      <c r="G78" s="167"/>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E79" s="158"/>
-      <c r="G79" s="162"/>
+      <c r="E79" s="163"/>
+      <c r="G79" s="167"/>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E80" s="158"/>
-      <c r="G80" s="162"/>
+      <c r="E80" s="163"/>
+      <c r="G80" s="167"/>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E81" s="158"/>
-      <c r="G81" s="162"/>
+      <c r="E81" s="163"/>
+      <c r="G81" s="167"/>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E82" s="158"/>
-      <c r="G82" s="162"/>
+      <c r="E82" s="163"/>
+      <c r="G82" s="167"/>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E83" s="158"/>
-      <c r="G83" s="162"/>
+      <c r="E83" s="163"/>
+      <c r="G83" s="167"/>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E84" s="158"/>
-      <c r="G84" s="162"/>
+      <c r="E84" s="163"/>
+      <c r="G84" s="167"/>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E85" s="158"/>
-      <c r="G85" s="162"/>
+      <c r="E85" s="163"/>
+      <c r="G85" s="167"/>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E86" s="158"/>
-      <c r="G86" s="162"/>
+      <c r="E86" s="163"/>
+      <c r="G86" s="167"/>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E87" s="158"/>
-      <c r="G87" s="162"/>
+      <c r="E87" s="163"/>
+      <c r="G87" s="167"/>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E88" s="158"/>
-      <c r="G88" s="162"/>
+      <c r="E88" s="163"/>
+      <c r="G88" s="167"/>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E89" s="158"/>
-      <c r="G89" s="162"/>
+      <c r="E89" s="163"/>
+      <c r="G89" s="167"/>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E90" s="158"/>
-      <c r="G90" s="162"/>
+      <c r="E90" s="163"/>
+      <c r="G90" s="167"/>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E91" s="158"/>
-      <c r="G91" s="162"/>
+      <c r="E91" s="163"/>
+      <c r="G91" s="167"/>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G92" s="162"/>
+      <c r="G92" s="167"/>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G93" s="162"/>
+      <c r="G93" s="167"/>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G94" s="162"/>
+      <c r="G94" s="167"/>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G95" s="162"/>
+      <c r="G95" s="167"/>
     </row>
     <row r="96" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G96" s="162"/>
+      <c r="G96" s="167"/>
     </row>
     <row r="97" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D97" s="90">
         <v>4</v>
       </c>
-      <c r="E97" s="178" t="s">
+      <c r="E97" s="160" t="s">
         <v>179</v>
       </c>
       <c r="F97" s="90">
         <v>451</v>
       </c>
-      <c r="G97" s="158" t="s">
+      <c r="G97" s="163" t="s">
         <v>180</v>
       </c>
       <c r="H97" s="101" t="s">
@@ -8251,54 +8433,54 @@
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E98" s="180"/>
-      <c r="G98" s="158"/>
+      <c r="E98" s="161"/>
+      <c r="G98" s="163"/>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E99" s="180"/>
-      <c r="G99" s="158"/>
+      <c r="E99" s="161"/>
+      <c r="G99" s="163"/>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E100" s="180"/>
-      <c r="G100" s="158"/>
+      <c r="E100" s="161"/>
+      <c r="G100" s="163"/>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E101" s="180"/>
-      <c r="G101" s="158"/>
+      <c r="E101" s="161"/>
+      <c r="G101" s="163"/>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E102" s="180"/>
-      <c r="G102" s="158"/>
+      <c r="E102" s="161"/>
+      <c r="G102" s="163"/>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E103" s="180"/>
-      <c r="G103" s="158"/>
+      <c r="E103" s="161"/>
+      <c r="G103" s="163"/>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E104" s="180"/>
-      <c r="G104" s="158"/>
+      <c r="E104" s="161"/>
+      <c r="G104" s="163"/>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E105" s="180"/>
-      <c r="G105" s="158"/>
+      <c r="E105" s="161"/>
+      <c r="G105" s="163"/>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E106" s="180"/>
-      <c r="G106" s="158"/>
+      <c r="E106" s="161"/>
+      <c r="G106" s="163"/>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E107" s="180"/>
-      <c r="G107" s="158"/>
+      <c r="E107" s="161"/>
+      <c r="G107" s="163"/>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E108" s="180"/>
-      <c r="G108" s="158"/>
+      <c r="E108" s="161"/>
+      <c r="G108" s="163"/>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G109" s="158"/>
+      <c r="G109" s="163"/>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="158"/>
+      <c r="G110" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8328,7 +8510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:Y482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="O10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
@@ -8350,10 +8532,10 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="I6" s="174" t="s">
+      <c r="I6" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="175"/>
+      <c r="J6" s="180"/>
       <c r="K6" s="31" t="s">
         <v>139</v>
       </c>
@@ -8377,8 +8559,8 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="177"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
       <c r="K7" s="22" t="s">
         <v>140</v>
       </c>
@@ -8424,19 +8606,19 @@
       <c r="F10" t="s">
         <v>137</v>
       </c>
-      <c r="U10" s="182" t="s">
+      <c r="U10" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="V10" s="181">
+      <c r="V10" s="115">
         <v>4.0355696145620703</v>
       </c>
-      <c r="W10" s="181">
+      <c r="W10" s="115">
         <v>4.25710743005782</v>
       </c>
-      <c r="X10" s="181">
+      <c r="X10" s="115">
         <v>3.77391380004984</v>
       </c>
-      <c r="Y10" s="181">
+      <c r="Y10" s="115">
         <v>4.4210870761961996</v>
       </c>
     </row>
@@ -8444,19 +8626,19 @@
       <c r="F11" t="s">
         <v>137</v>
       </c>
-      <c r="U11" s="182" t="s">
+      <c r="U11" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="V11" s="181">
+      <c r="V11" s="115">
         <v>4.0355696145620703</v>
       </c>
-      <c r="W11" s="181">
+      <c r="W11" s="115">
         <v>4.25710743005782</v>
       </c>
-      <c r="X11" s="181">
+      <c r="X11" s="115">
         <v>3.77391380004984</v>
       </c>
-      <c r="Y11" s="181">
+      <c r="Y11" s="115">
         <v>4.4210870761961996</v>
       </c>
     </row>
@@ -8522,16 +8704,16 @@
       <c r="P19" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="181" t="s">
+      <c r="Q19" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="R19" s="181" t="s">
+      <c r="R19" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="S19" s="181" t="s">
+      <c r="S19" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="T19" s="181" t="s">
+      <c r="T19" s="115" t="s">
         <v>178</v>
       </c>
     </row>
@@ -8542,16 +8724,16 @@
       <c r="P20" t="s">
         <v>186</v>
       </c>
-      <c r="Q20" s="181" t="s">
+      <c r="Q20" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="R20" s="181" t="s">
+      <c r="R20" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="S20" s="181" t="s">
+      <c r="S20" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="T20" s="181" t="s">
+      <c r="T20" s="115" t="s">
         <v>178</v>
       </c>
     </row>
